--- a/word_features/半年/CHA,2021-1~2021-7,主题_词矩阵.xlsx
+++ b/word_features/半年/CHA,2021-1~2021-7,主题_词矩阵.xlsx
@@ -14,11 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>一剂</t>
+  </si>
   <si>
     <t>一带</t>
   </si>
   <si>
+    <t>一针</t>
+  </si>
+  <si>
+    <t>万剂</t>
+  </si>
+  <si>
+    <t>不确定性</t>
+  </si>
+  <si>
     <t>世卫</t>
   </si>
   <si>
@@ -28,55 +40,79 @@
     <t>世纪</t>
   </si>
   <si>
-    <t>丝带</t>
+    <t>东欧国家</t>
+  </si>
+  <si>
+    <t>东盟国家</t>
+  </si>
+  <si>
+    <t>两剂</t>
+  </si>
+  <si>
+    <t>两国人民</t>
+  </si>
+  <si>
+    <t>中土</t>
   </si>
   <si>
     <t>中央</t>
   </si>
   <si>
-    <t>中心</t>
-  </si>
-  <si>
     <t>临床试验</t>
   </si>
   <si>
     <t>主义</t>
   </si>
   <si>
-    <t>主体</t>
-  </si>
-  <si>
     <t>主席</t>
   </si>
   <si>
-    <t>乡村</t>
+    <t>主张</t>
+  </si>
+  <si>
+    <t>主旨</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>乌方</t>
   </si>
   <si>
     <t>事业</t>
   </si>
   <si>
+    <t>事务</t>
+  </si>
+  <si>
     <t>互利</t>
   </si>
   <si>
-    <t>互联网</t>
+    <t>交汇点</t>
   </si>
   <si>
     <t>交流</t>
   </si>
   <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>产业</t>
-  </si>
-  <si>
     <t>产业链</t>
   </si>
   <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>人才</t>
+    <t>产生</t>
+  </si>
+  <si>
+    <t>人体</t>
+  </si>
+  <si>
+    <t>人口比例</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>人文</t>
+  </si>
+  <si>
+    <t>人民</t>
   </si>
   <si>
     <t>人类</t>
@@ -85,46 +121,76 @@
     <t>人群</t>
   </si>
   <si>
-    <t>人脸识别</t>
-  </si>
-  <si>
     <t>代表</t>
   </si>
   <si>
-    <t>企业</t>
-  </si>
-  <si>
     <t>优势</t>
   </si>
   <si>
+    <t>伙伴</t>
+  </si>
+  <si>
     <t>伙伴关系</t>
   </si>
   <si>
     <t>会议</t>
   </si>
   <si>
+    <t>伟大成就</t>
+  </si>
+  <si>
+    <t>传染性</t>
+  </si>
+  <si>
+    <t>住院</t>
+  </si>
+  <si>
     <t>体制</t>
   </si>
   <si>
     <t>体系</t>
   </si>
   <si>
+    <t>作出贡献</t>
+  </si>
+  <si>
     <t>供应链</t>
   </si>
   <si>
+    <t>依靠人民</t>
+  </si>
+  <si>
+    <t>保护主义</t>
+  </si>
+  <si>
+    <t>保护期</t>
+  </si>
+  <si>
+    <t>保护率</t>
+  </si>
+  <si>
+    <t>信心</t>
+  </si>
+  <si>
+    <t>倡议</t>
+  </si>
+  <si>
+    <t>债务</t>
+  </si>
+  <si>
+    <t>储存</t>
+  </si>
+  <si>
     <t>免疫力</t>
   </si>
   <si>
-    <t>党员</t>
-  </si>
-  <si>
-    <t>党的领导</t>
-  </si>
-  <si>
     <t>全人类</t>
   </si>
   <si>
-    <t>全国</t>
+    <t>全党</t>
+  </si>
+  <si>
+    <t>全局</t>
   </si>
   <si>
     <t>全球</t>
@@ -133,43 +199,103 @@
     <t>全球化</t>
   </si>
   <si>
+    <t>全球性</t>
+  </si>
+  <si>
+    <t>全面</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
     <t>公平</t>
   </si>
   <si>
+    <t>公平合理</t>
+  </si>
+  <si>
+    <t>公平正义</t>
+  </si>
+  <si>
+    <t>公益</t>
+  </si>
+  <si>
+    <t>公约</t>
+  </si>
+  <si>
+    <t>共产党人</t>
+  </si>
+  <si>
+    <t>共克</t>
+  </si>
+  <si>
+    <t>共创</t>
+  </si>
+  <si>
     <t>共同体</t>
   </si>
   <si>
+    <t>共同利益</t>
+  </si>
+  <si>
+    <t>共商</t>
+  </si>
+  <si>
     <t>共识</t>
   </si>
   <si>
+    <t>共谋</t>
+  </si>
+  <si>
     <t>关系</t>
   </si>
   <si>
     <t>关键</t>
   </si>
   <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>农村</t>
-  </si>
-  <si>
-    <t>冰雪</t>
-  </si>
-  <si>
-    <t>决策</t>
-  </si>
-  <si>
-    <t>创业</t>
+    <t>典范</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>内涵</t>
+  </si>
+  <si>
+    <t>内需</t>
+  </si>
+  <si>
+    <t>冷链</t>
+  </si>
+  <si>
+    <t>分歧</t>
+  </si>
+  <si>
+    <t>刚方</t>
+  </si>
+  <si>
+    <t>刚果</t>
+  </si>
+  <si>
+    <t>利益</t>
   </si>
   <si>
     <t>制度</t>
   </si>
   <si>
-    <t>制造业</t>
-  </si>
-  <si>
-    <t>力度</t>
+    <t>制药</t>
+  </si>
+  <si>
+    <t>剂次</t>
+  </si>
+  <si>
+    <t>剂量</t>
+  </si>
+  <si>
+    <t>前景</t>
+  </si>
+  <si>
+    <t>前途</t>
   </si>
   <si>
     <t>力量</t>
@@ -178,37 +304,142 @@
     <t>动力</t>
   </si>
   <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>协同</t>
+    <t>动能</t>
+  </si>
+  <si>
+    <t>包容性</t>
+  </si>
+  <si>
+    <t>匈方</t>
+  </si>
+  <si>
+    <t>区域合作</t>
+  </si>
+  <si>
+    <t>医务人员</t>
+  </si>
+  <si>
+    <t>医药集团</t>
   </si>
   <si>
     <t>协商</t>
   </si>
   <si>
-    <t>博会</t>
+    <t>协议</t>
+  </si>
+  <si>
+    <t>单日</t>
+  </si>
+  <si>
+    <t>单边主义</t>
+  </si>
+  <si>
+    <t>单针</t>
+  </si>
+  <si>
+    <t>卫生部长</t>
+  </si>
+  <si>
+    <t>卫生部门</t>
+  </si>
+  <si>
+    <t>危机</t>
   </si>
   <si>
     <t>历史</t>
   </si>
   <si>
+    <t>历史性</t>
+  </si>
+  <si>
+    <t>历程</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>原液</t>
+  </si>
+  <si>
+    <t>友好关系</t>
+  </si>
+  <si>
+    <t>双方</t>
+  </si>
+  <si>
+    <t>双边</t>
+  </si>
+  <si>
+    <t>双边关系</t>
+  </si>
+  <si>
+    <t>双边合作</t>
+  </si>
+  <si>
+    <t>变局</t>
+  </si>
+  <si>
     <t>变异</t>
   </si>
   <si>
-    <t>古井</t>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>可持续性</t>
+  </si>
+  <si>
+    <t>台湾同胞</t>
+  </si>
+  <si>
+    <t>台胞</t>
+  </si>
+  <si>
+    <t>合作伙伴</t>
+  </si>
+  <si>
+    <t>合作项目</t>
+  </si>
+  <si>
+    <t>合法席位</t>
   </si>
   <si>
     <t>同志</t>
   </si>
   <si>
+    <t>同意书</t>
+  </si>
+  <si>
+    <t>吸入式</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
     <t>命运</t>
   </si>
   <si>
+    <t>哥方</t>
+  </si>
+  <si>
+    <t>哺乳期</t>
+  </si>
+  <si>
+    <t>因私</t>
+  </si>
+  <si>
+    <t>团结合作</t>
+  </si>
+  <si>
+    <t>国务委员</t>
+  </si>
+  <si>
     <t>国家</t>
   </si>
   <si>
-    <t>国有企业</t>
+    <t>国家主权</t>
+  </si>
+  <si>
+    <t>国情</t>
   </si>
   <si>
     <t>国药</t>
@@ -217,7 +448,16 @@
     <t>国际</t>
   </si>
   <si>
-    <t>基层</t>
+    <t>国际事务</t>
+  </si>
+  <si>
+    <t>国际形势</t>
+  </si>
+  <si>
+    <t>国际法</t>
+  </si>
+  <si>
+    <t>土方</t>
   </si>
   <si>
     <t>基础</t>
@@ -226,49 +466,100 @@
     <t>基础设施</t>
   </si>
   <si>
-    <t>基金</t>
+    <t>基调</t>
   </si>
   <si>
     <t>外交</t>
   </si>
   <si>
+    <t>外交政策</t>
+  </si>
+  <si>
+    <t>外交部长</t>
+  </si>
+  <si>
+    <t>外籍人士</t>
+  </si>
+  <si>
+    <t>外部环境</t>
+  </si>
+  <si>
+    <t>外长</t>
+  </si>
+  <si>
     <t>大会</t>
   </si>
   <si>
+    <t>大党</t>
+  </si>
+  <si>
+    <t>大势</t>
+  </si>
+  <si>
     <t>大变局</t>
   </si>
   <si>
     <t>大陆</t>
   </si>
   <si>
+    <t>天花</t>
+  </si>
+  <si>
+    <t>奇温</t>
+  </si>
+  <si>
+    <t>奇迹</t>
+  </si>
+  <si>
+    <t>契机</t>
+  </si>
+  <si>
     <t>委员</t>
   </si>
   <si>
+    <t>委员长</t>
+  </si>
+  <si>
+    <t>孕妇</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
     <t>宏观政策</t>
   </si>
   <si>
-    <t>官僚主义</t>
-  </si>
-  <si>
-    <t>宪法</t>
+    <t>定力</t>
+  </si>
+  <si>
+    <t>宪章</t>
+  </si>
+  <si>
+    <t>对华关系</t>
   </si>
   <si>
     <t>对话</t>
   </si>
   <si>
+    <t>小区</t>
+  </si>
+  <si>
     <t>小康社会</t>
   </si>
   <si>
+    <t>局势</t>
+  </si>
+  <si>
     <t>屏障</t>
   </si>
   <si>
     <t>峰会</t>
   </si>
   <si>
-    <t>工业</t>
-  </si>
-  <si>
-    <t>工程</t>
+    <t>巡视员</t>
   </si>
   <si>
     <t>市场</t>
@@ -277,13 +568,16 @@
     <t>市场主体</t>
   </si>
   <si>
-    <t>布局</t>
-  </si>
-  <si>
-    <t>干部</t>
-  </si>
-  <si>
-    <t>平台</t>
+    <t>年货</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>建设性</t>
+  </si>
+  <si>
+    <t>开好局</t>
   </si>
   <si>
     <t>开局</t>
@@ -292,46 +586,103 @@
     <t>强国</t>
   </si>
   <si>
-    <t>形式主义</t>
+    <t>强音</t>
+  </si>
+  <si>
+    <t>当局</t>
   </si>
   <si>
     <t>征程</t>
   </si>
   <si>
+    <t>志愿者</t>
+  </si>
+  <si>
     <t>思想</t>
   </si>
   <si>
     <t>总书记</t>
   </si>
   <si>
-    <t>情况通报</t>
-  </si>
-  <si>
-    <t>意见</t>
+    <t>总人口</t>
+  </si>
+  <si>
+    <t>总剂</t>
+  </si>
+  <si>
+    <t>总干事</t>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>总统府</t>
+  </si>
+  <si>
+    <t>恐怖主义</t>
+  </si>
+  <si>
+    <t>情谊</t>
+  </si>
+  <si>
+    <t>意义</t>
+  </si>
+  <si>
+    <t>意志</t>
+  </si>
+  <si>
+    <t>感染者</t>
   </si>
   <si>
     <t>成员国</t>
   </si>
   <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
     <t>成果</t>
   </si>
   <si>
+    <t>战书</t>
+  </si>
+  <si>
     <t>战略</t>
   </si>
   <si>
-    <t>技术</t>
+    <t>战略伙伴</t>
+  </si>
+  <si>
+    <t>战胜</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>执政党</t>
+  </si>
+  <si>
+    <t>投入使用</t>
   </si>
   <si>
     <t>抗体</t>
   </si>
   <si>
-    <t>报告</t>
+    <t>持久和平</t>
+  </si>
+  <si>
+    <t>攻关组</t>
   </si>
   <si>
     <t>政党</t>
   </si>
   <si>
-    <t>政府</t>
+    <t>政局</t>
   </si>
   <si>
     <t>政治</t>
@@ -340,55 +691,109 @@
     <t>政策</t>
   </si>
   <si>
+    <t>效力</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
     <t>数字</t>
   </si>
   <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>整治</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
     <t>新冠</t>
   </si>
   <si>
-    <t>新能源</t>
+    <t>新台阶</t>
+  </si>
+  <si>
+    <t>新篇章</t>
   </si>
   <si>
     <t>方向</t>
   </si>
   <si>
+    <t>方愿</t>
+  </si>
+  <si>
+    <t>旅客</t>
+  </si>
+  <si>
+    <t>无党派人士</t>
+  </si>
+  <si>
+    <t>无息贷款</t>
+  </si>
+  <si>
     <t>时代</t>
   </si>
   <si>
     <t>时期</t>
   </si>
   <si>
+    <t>时艰</t>
+  </si>
+  <si>
+    <t>春运</t>
+  </si>
+  <si>
+    <t>景区</t>
+  </si>
+  <si>
+    <t>智库</t>
+  </si>
+  <si>
+    <t>有力</t>
+  </si>
+  <si>
     <t>有效性</t>
   </si>
   <si>
-    <t>机制</t>
+    <t>有效率</t>
+  </si>
+  <si>
+    <t>有款</t>
   </si>
   <si>
     <t>机遇</t>
   </si>
   <si>
+    <t>权威专家</t>
+  </si>
+  <si>
     <t>条件</t>
   </si>
   <si>
+    <t>条约</t>
+  </si>
+  <si>
     <t>核心</t>
   </si>
   <si>
+    <t>核糖核酸</t>
+  </si>
+  <si>
+    <t>核酸</t>
+  </si>
+  <si>
+    <t>根本利益</t>
+  </si>
+  <si>
     <t>格局</t>
   </si>
   <si>
-    <t>模具</t>
-  </si>
-  <si>
-    <t>模头</t>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>梯次</t>
+  </si>
+  <si>
+    <t>榜样</t>
+  </si>
+  <si>
+    <t>正义</t>
+  </si>
+  <si>
+    <t>步伐</t>
   </si>
   <si>
     <t>毒株</t>
@@ -397,25 +802,43 @@
     <t>民主</t>
   </si>
   <si>
+    <t>民主党派</t>
+  </si>
+  <si>
+    <t>民主自由</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>民心</t>
+  </si>
+  <si>
+    <t>民意基础</t>
+  </si>
+  <si>
     <t>民族</t>
   </si>
   <si>
+    <t>民族主义</t>
+  </si>
+  <si>
     <t>民生</t>
   </si>
   <si>
-    <t>水平</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>法治</t>
-  </si>
-  <si>
-    <t>注射器</t>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>气候变化</t>
+  </si>
+  <si>
+    <t>法方</t>
+  </si>
+  <si>
+    <t>波方</t>
+  </si>
+  <si>
+    <t>注意事项</t>
   </si>
   <si>
     <t>活力</t>
@@ -424,28 +847,61 @@
     <t>活疫苗</t>
   </si>
   <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>潜力</t>
+  </si>
+  <si>
+    <t>潮流</t>
+  </si>
+  <si>
+    <t>瀑布</t>
+  </si>
+  <si>
     <t>特色</t>
   </si>
   <si>
-    <t>环境</t>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>现行标准</t>
   </si>
   <si>
     <t>理念</t>
   </si>
   <si>
+    <t>理政</t>
+  </si>
+  <si>
     <t>理论</t>
   </si>
   <si>
+    <t>生产工艺</t>
+  </si>
+  <si>
+    <t>生产总值</t>
+  </si>
+  <si>
     <t>生态</t>
   </si>
   <si>
+    <t>生效</t>
+  </si>
+  <si>
     <t>生物</t>
   </si>
   <si>
     <t>生物制品</t>
   </si>
   <si>
-    <t>疫情</t>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>疫后</t>
   </si>
   <si>
     <t>疫苗</t>
@@ -454,6 +910,9 @@
     <t>疾控中心</t>
   </si>
   <si>
+    <t>疾控局</t>
+  </si>
+  <si>
     <t>疾病</t>
   </si>
   <si>
@@ -463,10 +922,22 @@
     <t>病毒</t>
   </si>
   <si>
+    <t>病毒传播</t>
+  </si>
+  <si>
+    <t>病毒感染</t>
+  </si>
+  <si>
     <t>目标</t>
   </si>
   <si>
-    <t>着力</t>
+    <t>知情</t>
+  </si>
+  <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>社交</t>
   </si>
   <si>
     <t>社会</t>
@@ -475,16 +946,34 @@
     <t>社会主义</t>
   </si>
   <si>
-    <t>科学</t>
+    <t>社会制度</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>禁忌症</t>
+  </si>
+  <si>
+    <t>种者</t>
+  </si>
+  <si>
+    <t>科学知识</t>
   </si>
   <si>
     <t>科技</t>
   </si>
   <si>
-    <t>空间</t>
-  </si>
-  <si>
-    <t>竞争力</t>
+    <t>科技交流</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>立场</t>
+  </si>
+  <si>
+    <t>立法机构</t>
   </si>
   <si>
     <t>精神</t>
@@ -499,16 +988,46 @@
     <t>经济体</t>
   </si>
   <si>
+    <t>经济学家</t>
+  </si>
+  <si>
     <t>经济社会</t>
   </si>
   <si>
+    <t>经济运行</t>
+  </si>
+  <si>
+    <t>经贸</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>经验交流</t>
+  </si>
+  <si>
+    <t>结构性</t>
+  </si>
+  <si>
+    <t>继续加强</t>
+  </si>
+  <si>
+    <t>维生物</t>
+  </si>
+  <si>
     <t>绿色</t>
   </si>
   <si>
-    <t>群众</t>
-  </si>
-  <si>
-    <t>能力</t>
+    <t>缔约方</t>
+  </si>
+  <si>
+    <t>群体</t>
+  </si>
+  <si>
+    <t>老方</t>
+  </si>
+  <si>
+    <t>胸怀</t>
   </si>
   <si>
     <t>能源</t>
@@ -517,22 +1036,31 @@
     <t>腺病毒</t>
   </si>
   <si>
+    <t>致力于</t>
+  </si>
+  <si>
     <t>草案</t>
   </si>
   <si>
-    <t>荔枝</t>
-  </si>
-  <si>
-    <t>营商</t>
-  </si>
-  <si>
-    <t>落户</t>
-  </si>
-  <si>
-    <t>行业</t>
-  </si>
-  <si>
-    <t>要素</t>
+    <t>药监</t>
+  </si>
+  <si>
+    <t>蛋白</t>
+  </si>
+  <si>
+    <t>血栓</t>
+  </si>
+  <si>
+    <t>补种</t>
+  </si>
+  <si>
+    <t>表示祝贺</t>
+  </si>
+  <si>
+    <t>观众</t>
+  </si>
+  <si>
+    <t>观区</t>
   </si>
   <si>
     <t>规划</t>
@@ -541,52 +1069,106 @@
     <t>规则</t>
   </si>
   <si>
-    <t>规模</t>
-  </si>
-  <si>
-    <t>评价</t>
-  </si>
-  <si>
-    <t>评议</t>
-  </si>
-  <si>
-    <t>试验区</t>
-  </si>
-  <si>
-    <t>谋划</t>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>议程</t>
+  </si>
+  <si>
+    <t>议长</t>
+  </si>
+  <si>
+    <t>议题</t>
+  </si>
+  <si>
+    <t>讲话</t>
+  </si>
+  <si>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>证据</t>
   </si>
   <si>
     <t>贡献</t>
   </si>
   <si>
-    <t>责任</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>资金</t>
-  </si>
-  <si>
-    <t>转型</t>
-  </si>
-  <si>
-    <t>连线</t>
+    <t>财政部长</t>
+  </si>
+  <si>
+    <t>贫困人口</t>
+  </si>
+  <si>
+    <t>贸易额</t>
+  </si>
+  <si>
+    <t>走廊</t>
+  </si>
+  <si>
+    <t>起点</t>
+  </si>
+  <si>
+    <t>跨国公司</t>
+  </si>
+  <si>
+    <t>路线</t>
+  </si>
+  <si>
+    <t>载体</t>
+  </si>
+  <si>
+    <t>载入史册</t>
+  </si>
+  <si>
+    <t>边境地区</t>
+  </si>
+  <si>
+    <t>进步事业</t>
+  </si>
+  <si>
+    <t>进程</t>
+  </si>
+  <si>
+    <t>远景</t>
+  </si>
+  <si>
+    <t>连续性</t>
+  </si>
+  <si>
+    <t>通话</t>
+  </si>
+  <si>
+    <t>速度</t>
   </si>
   <si>
     <t>道路</t>
   </si>
   <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>重点</t>
-  </si>
-  <si>
-    <t>量子</t>
-  </si>
-  <si>
-    <t>金融</t>
+    <t>重症</t>
+  </si>
+  <si>
+    <t>金融危机</t>
+  </si>
+  <si>
+    <t>金边</t>
+  </si>
+  <si>
+    <t>针剂</t>
+  </si>
+  <si>
+    <t>针头</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>间隔</t>
+  </si>
+  <si>
+    <t>阴霾</t>
   </si>
   <si>
     <t>阶段</t>
@@ -595,7 +1177,16 @@
     <t>院士</t>
   </si>
   <si>
-    <t>项目</t>
+    <t>雾化</t>
+  </si>
+  <si>
+    <t>霸权主义</t>
+  </si>
+  <si>
+    <t>韧性</t>
+  </si>
+  <si>
+    <t>预防接种</t>
   </si>
   <si>
     <t>领域</t>
@@ -607,13 +1198,22 @@
     <t>领导人</t>
   </si>
   <si>
+    <t>首剂</t>
+  </si>
+  <si>
     <t>马克思主义</t>
   </si>
   <si>
-    <t>高校</t>
+    <t>高层</t>
+  </si>
+  <si>
+    <t>高度评价</t>
   </si>
   <si>
     <t>高质量</t>
+  </si>
+  <si>
+    <t>鸿沟</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>911.4260771687653</v>
+        <v>0.346284439014389</v>
       </c>
       <c r="C2">
-        <v>0.3476063327893476</v>
+        <v>33.12065254065099</v>
       </c>
       <c r="D2">
-        <v>3784.495681752598</v>
+        <v>0.4026087952571458</v>
       </c>
       <c r="E2">
-        <v>379.3287964360249</v>
+        <v>0.3358201888916327</v>
       </c>
       <c r="F2">
-        <v>0.3709271286570873</v>
+        <v>8.043339108763448</v>
       </c>
       <c r="G2">
-        <v>921.2871009308</v>
+        <v>0.3613462451402044</v>
       </c>
       <c r="H2">
-        <v>576.8396676031784</v>
+        <v>95.26462333631643</v>
       </c>
       <c r="I2">
-        <v>0.3401507750939957</v>
+        <v>12.88422631650273</v>
       </c>
       <c r="J2">
-        <v>558.2831666607747</v>
+        <v>2.169427336947315</v>
       </c>
       <c r="K2">
-        <v>166.3293758274461</v>
+        <v>2.631849253061836</v>
       </c>
       <c r="L2">
-        <v>2157.890878092845</v>
+        <v>0.3402172556983468</v>
       </c>
       <c r="M2">
-        <v>862.7819251099193</v>
+        <v>14.35572482957575</v>
       </c>
       <c r="N2">
-        <v>647.2418358985329</v>
+        <v>1.654383858153461</v>
       </c>
       <c r="O2">
-        <v>271.2937868858588</v>
+        <v>24.46161519206969</v>
       </c>
       <c r="P2">
-        <v>17.31885535873606</v>
+        <v>0.3414191547371145</v>
       </c>
       <c r="Q2">
-        <v>882.8425642035763</v>
+        <v>22.28824135355518</v>
       </c>
       <c r="R2">
-        <v>33.53572038122007</v>
+        <v>65.92916360934669</v>
       </c>
       <c r="S2">
-        <v>0.4660014529463913</v>
+        <v>7.54989567695819</v>
       </c>
       <c r="T2">
-        <v>0.4205840596854747</v>
+        <v>5.693978789660824</v>
       </c>
       <c r="U2">
-        <v>0.4806289422807651</v>
+        <v>3.434203596082751</v>
       </c>
       <c r="V2">
-        <v>79.07953454753333</v>
+        <v>4.212891501940746</v>
       </c>
       <c r="W2">
-        <v>1696.642628084389</v>
+        <v>18.97132287269693</v>
       </c>
       <c r="X2">
-        <v>0.3789963443204412</v>
+        <v>8.514273831186276</v>
       </c>
       <c r="Y2">
-        <v>0.3369266701945091</v>
+        <v>13.56450801251016</v>
       </c>
       <c r="Z2">
-        <v>1675.251510437656</v>
+        <v>3.874580461702653</v>
       </c>
       <c r="AA2">
-        <v>0.3833475213897997</v>
+        <v>31.08498028598357</v>
       </c>
       <c r="AB2">
-        <v>464.5940503489064</v>
+        <v>15.17912058979288</v>
       </c>
       <c r="AC2">
-        <v>149.013410639941</v>
+        <v>3.523909114452988</v>
       </c>
       <c r="AD2">
-        <v>1450.071990318299</v>
+        <v>0.3493583933258247</v>
       </c>
       <c r="AE2">
-        <v>116.4044119245667</v>
+        <v>0.3460104525810096</v>
       </c>
       <c r="AF2">
-        <v>955.9027132281819</v>
+        <v>0.3812573301764356</v>
       </c>
       <c r="AG2">
-        <v>0.4289736484175352</v>
+        <v>11.02300827882173</v>
       </c>
       <c r="AH2">
-        <v>0.3370241437195718</v>
+        <v>90.63478468197579</v>
       </c>
       <c r="AI2">
-        <v>952.2444416022496</v>
+        <v>48.27027830409723</v>
       </c>
       <c r="AJ2">
-        <v>114.2436439725183</v>
+        <v>0.3518498747943648</v>
       </c>
       <c r="AK2">
-        <v>163.6358233098723</v>
+        <v>42.99839316649522</v>
       </c>
       <c r="AL2">
-        <v>1337.01195894918</v>
+        <v>21.93526264418081</v>
       </c>
       <c r="AM2">
-        <v>1530.112657012501</v>
+        <v>12.63243406657515</v>
       </c>
       <c r="AN2">
-        <v>145.3442955321865</v>
+        <v>8.696630718777984</v>
       </c>
       <c r="AO2">
-        <v>167.944615790448</v>
+        <v>39.38847210360341</v>
       </c>
       <c r="AP2">
-        <v>987.2261662838196</v>
+        <v>4.515807029984293</v>
       </c>
       <c r="AQ2">
-        <v>539.3067463292117</v>
+        <v>0.3604970845357515</v>
       </c>
       <c r="AR2">
-        <v>1286.512570202741</v>
+        <v>0.3420125908368221</v>
       </c>
       <c r="AS2">
-        <v>337.8044631885579</v>
+        <v>7.614395425256815</v>
       </c>
       <c r="AT2">
-        <v>275.6461579066077</v>
+        <v>34.53302408243816</v>
       </c>
       <c r="AU2">
-        <v>606.5597480952811</v>
+        <v>5.740397842033957</v>
       </c>
       <c r="AV2">
-        <v>0.3997389329369954</v>
+        <v>15.00520401083383</v>
       </c>
       <c r="AW2">
-        <v>398.7862357235848</v>
+        <v>3.022531324940795</v>
       </c>
       <c r="AX2">
-        <v>68.06354164968212</v>
+        <v>4.765601992916089</v>
       </c>
       <c r="AY2">
-        <v>1645.569986639316</v>
+        <v>0.333950414066648</v>
       </c>
       <c r="AZ2">
-        <v>0.3562279943820246</v>
+        <v>0.3456499981146834</v>
       </c>
       <c r="BA2">
-        <v>160.0397433408934</v>
+        <v>16.76582229932224</v>
       </c>
       <c r="BB2">
-        <v>1282.100135173739</v>
+        <v>18.07669154029397</v>
       </c>
       <c r="BC2">
-        <v>337.0510927398399</v>
+        <v>7.062316176332848</v>
       </c>
       <c r="BD2">
-        <v>170.4151416104081</v>
+        <v>0.3626726113043562</v>
       </c>
       <c r="BE2">
-        <v>78.53637780152594</v>
+        <v>0.3374449011912669</v>
       </c>
       <c r="BF2">
-        <v>459.2884263556768</v>
+        <v>8.028024436517466</v>
       </c>
       <c r="BG2">
-        <v>0.4304825266817614</v>
+        <v>2.821065154605567</v>
       </c>
       <c r="BH2">
-        <v>1950.294936092645</v>
+        <v>5.804958406896293</v>
       </c>
       <c r="BI2">
-        <v>0.3483784997991747</v>
+        <v>82.73956878278906</v>
       </c>
       <c r="BJ2">
-        <v>0.3572224418323622</v>
+        <v>7.646352691661379</v>
       </c>
       <c r="BK2">
-        <v>607.2947363387239</v>
+        <v>9.859326028254531</v>
       </c>
       <c r="BL2">
-        <v>993.2659737895189</v>
+        <v>53.06032510371878</v>
       </c>
       <c r="BM2">
-        <v>5210.294349305502</v>
+        <v>0.3882165244645784</v>
       </c>
       <c r="BN2">
-        <v>40.84175450022288</v>
+        <v>10.64948262382774</v>
       </c>
       <c r="BO2">
-        <v>0.3374505114239801</v>
+        <v>3.127596832376232</v>
       </c>
       <c r="BP2">
-        <v>2644.016404801715</v>
+        <v>7.439419193512785</v>
       </c>
       <c r="BQ2">
-        <v>1548.127617039891</v>
+        <v>0.3479782648784827</v>
       </c>
       <c r="BR2">
-        <v>522.9152002488366</v>
+        <v>3.879116915447236</v>
       </c>
       <c r="BS2">
-        <v>187.862078077134</v>
+        <v>5.215222682977898</v>
       </c>
       <c r="BT2">
-        <v>0.386877661998349</v>
+        <v>7.742576125712364</v>
       </c>
       <c r="BU2">
-        <v>388.2941028479954</v>
+        <v>3.711014919505397</v>
       </c>
       <c r="BV2">
-        <v>719.8986473249151</v>
+        <v>33.06621492158356</v>
       </c>
       <c r="BW2">
-        <v>146.3595308673521</v>
+        <v>7.375247942260388</v>
       </c>
       <c r="BX2">
-        <v>0.4316401003380059</v>
+        <v>4.671970742056677</v>
       </c>
       <c r="BY2">
-        <v>1027.234304787033</v>
+        <v>20.25146146323436</v>
       </c>
       <c r="BZ2">
-        <v>0.4104732185363826</v>
+        <v>3.800237629601927</v>
       </c>
       <c r="CA2">
-        <v>126.3191873433122</v>
+        <v>48.17442656920812</v>
       </c>
       <c r="CB2">
-        <v>212.3227960034976</v>
+        <v>14.67059864102636</v>
       </c>
       <c r="CC2">
-        <v>489.6732856224157</v>
+        <v>6.251446582574926</v>
       </c>
       <c r="CD2">
-        <v>363.2836218553668</v>
+        <v>6.281251152356609</v>
       </c>
       <c r="CE2">
-        <v>25.78844514196737</v>
+        <v>7.102358924428355</v>
       </c>
       <c r="CF2">
-        <v>578.3781913075335</v>
+        <v>4.739139856719612</v>
       </c>
       <c r="CG2">
-        <v>0.3583022719729848</v>
+        <v>0.3534804950494</v>
       </c>
       <c r="CH2">
-        <v>148.8340960952813</v>
+        <v>8.171229753031593</v>
       </c>
       <c r="CI2">
-        <v>0.392559015487482</v>
+        <v>2.397104108768825</v>
       </c>
       <c r="CJ2">
-        <v>0.3620802899230615</v>
+        <v>4.055052072491808</v>
       </c>
       <c r="CK2">
-        <v>43.10672856226428</v>
+        <v>20.3555463016644</v>
       </c>
       <c r="CL2">
-        <v>650.1118959049963</v>
+        <v>35.00898903677054</v>
       </c>
       <c r="CM2">
-        <v>222.0159720579657</v>
+        <v>0.3695367798642398</v>
       </c>
       <c r="CN2">
-        <v>95.89773360617706</v>
+        <v>0.3340025759065585</v>
       </c>
       <c r="CO2">
-        <v>193.4184194186774</v>
+        <v>0.3355295236531323</v>
       </c>
       <c r="CP2">
-        <v>230.3133783998359</v>
+        <v>9.84747126861869</v>
       </c>
       <c r="CQ2">
-        <v>666.24802043932</v>
+        <v>4.381342736072052</v>
       </c>
       <c r="CR2">
-        <v>1038.258748719009</v>
+        <v>23.83868546873549</v>
       </c>
       <c r="CS2">
-        <v>1939.296560328992</v>
+        <v>17.18285431502194</v>
       </c>
       <c r="CT2">
-        <v>3.774267436583223</v>
+        <v>9.956863977394358</v>
       </c>
       <c r="CU2">
-        <v>394.3958371979186</v>
+        <v>3.292169667454158</v>
       </c>
       <c r="CV2">
-        <v>97.62981222498986</v>
+        <v>2.934665899618349</v>
       </c>
       <c r="CW2">
-        <v>793.4151470080549</v>
+        <v>3.85132585165313</v>
       </c>
       <c r="CX2">
-        <v>940.3973133153401</v>
+        <v>0.4544095904824227</v>
       </c>
       <c r="CY2">
-        <v>33.23909269248472</v>
+        <v>0.3484254267452678</v>
       </c>
       <c r="CZ2">
-        <v>0.3694987099742443</v>
+        <v>13.25540489861611</v>
       </c>
       <c r="DA2">
-        <v>584.7185038933345</v>
+        <v>9.001868893795445</v>
       </c>
       <c r="DB2">
-        <v>535.3253431495722</v>
+        <v>0.3431635193566072</v>
       </c>
       <c r="DC2">
-        <v>565.7094941271168</v>
+        <v>5.720551161029796</v>
       </c>
       <c r="DD2">
-        <v>1673.746022986933</v>
+        <v>0.3342754208805592</v>
       </c>
       <c r="DE2">
-        <v>605.2109206320657</v>
+        <v>0.345987450986683</v>
       </c>
       <c r="DF2">
-        <v>51.66448879500405</v>
+        <v>0.3413448931142303</v>
       </c>
       <c r="DG2">
-        <v>0.3963677358403118</v>
+        <v>16.37244635462176</v>
       </c>
       <c r="DH2">
-        <v>228.6586868551263</v>
+        <v>43.42417642286465</v>
       </c>
       <c r="DI2">
-        <v>1418.381306287092</v>
+        <v>10.58897665426219</v>
       </c>
       <c r="DJ2">
-        <v>761.1080975819756</v>
+        <v>8.266981857189844</v>
       </c>
       <c r="DK2">
-        <v>0.3494337838347958</v>
+        <v>15.22578734954619</v>
       </c>
       <c r="DL2">
-        <v>454.1532642297373</v>
+        <v>0.3370396870523789</v>
       </c>
       <c r="DM2">
-        <v>1980.6277246792</v>
+        <v>3.065534605663616</v>
       </c>
       <c r="DN2">
-        <v>432.8119899658296</v>
+        <v>41.01943641949241</v>
       </c>
       <c r="DO2">
-        <v>0.4417844122353918</v>
+        <v>4.358976139306633</v>
       </c>
       <c r="DP2">
-        <v>751.584400880791</v>
+        <v>6.151193749669756</v>
       </c>
       <c r="DQ2">
-        <v>292.9092759691987</v>
+        <v>2.564118846032132</v>
       </c>
       <c r="DR2">
-        <v>168.780736373853</v>
+        <v>5.978376147632123</v>
       </c>
       <c r="DS2">
-        <v>709.1990849412717</v>
+        <v>0.3430758592628279</v>
       </c>
       <c r="DT2">
-        <v>496.9794088004518</v>
+        <v>0.3464045099680972</v>
       </c>
       <c r="DU2">
-        <v>0.339817720786304</v>
+        <v>4.43376175774497</v>
       </c>
       <c r="DV2">
-        <v>0.3333437482677278</v>
+        <v>0.4732660321425586</v>
       </c>
       <c r="DW2">
-        <v>0.3380907153984093</v>
+        <v>0.3527171145518377</v>
       </c>
       <c r="DX2">
-        <v>283.2823877944517</v>
+        <v>11.12456162445808</v>
       </c>
       <c r="DY2">
-        <v>743.2585623957965</v>
+        <v>4.108894330776115</v>
       </c>
       <c r="DZ2">
-        <v>431.6809741941481</v>
+        <v>1.969403642704666</v>
       </c>
       <c r="EA2">
-        <v>319.8633524189584</v>
+        <v>16.09634251149937</v>
       </c>
       <c r="EB2">
-        <v>0.3826432930514145</v>
+        <v>0.3339861351388472</v>
       </c>
       <c r="EC2">
-        <v>662.7007623456525</v>
+        <v>0.3350453050781914</v>
       </c>
       <c r="ED2">
-        <v>396.2225113244194</v>
+        <v>0.3459752296033157</v>
       </c>
       <c r="EE2">
-        <v>0.3337173102759735</v>
+        <v>30.7409481972585</v>
       </c>
       <c r="EF2">
-        <v>165.7870433336499</v>
+        <v>2.484359390707255</v>
       </c>
       <c r="EG2">
-        <v>0.3349012939529541</v>
+        <v>0.3339741675025172</v>
       </c>
       <c r="EH2">
-        <v>931.8657255069985</v>
+        <v>0.3518240322626616</v>
       </c>
       <c r="EI2">
-        <v>181.7007024655739</v>
+        <v>7.319769548154543</v>
       </c>
       <c r="EJ2">
-        <v>1008.637565173961</v>
+        <v>5.181653103604515</v>
       </c>
       <c r="EK2">
-        <v>450.4390589955164</v>
+        <v>102.2485279248233</v>
       </c>
       <c r="EL2">
-        <v>349.4361377179993</v>
+        <v>4.938963804782301</v>
       </c>
       <c r="EM2">
-        <v>35.1926235236668</v>
+        <v>4.859671986328951</v>
       </c>
       <c r="EN2">
-        <v>0.3347963166765134</v>
+        <v>0.3457011724608706</v>
       </c>
       <c r="EO2">
-        <v>2912.852047560531</v>
+        <v>86.00981278703475</v>
       </c>
       <c r="EP2">
-        <v>0.3703975512131944</v>
+        <v>4.630119058245567</v>
       </c>
       <c r="EQ2">
-        <v>0.3608190470364699</v>
+        <v>3.724832309070287</v>
       </c>
       <c r="ER2">
-        <v>69.15978293273434</v>
+        <v>4.737469819437138</v>
       </c>
       <c r="ES2">
-        <v>0.3410732734218413</v>
+        <v>2.667734802984041</v>
       </c>
       <c r="ET2">
-        <v>0.3540767808528725</v>
+        <v>20.56430701813977</v>
       </c>
       <c r="EU2">
-        <v>781.3355559561426</v>
+        <v>18.29816773693452</v>
       </c>
       <c r="EV2">
-        <v>195.2191793478367</v>
+        <v>3.781605764977226</v>
       </c>
       <c r="EW2">
-        <v>2463.563643343173</v>
+        <v>13.346780735736</v>
       </c>
       <c r="EX2">
-        <v>1573.292785952186</v>
+        <v>3.50585056545608</v>
       </c>
       <c r="EY2">
-        <v>478.3646480505624</v>
+        <v>2.40203246807308</v>
       </c>
       <c r="EZ2">
-        <v>200.2839557053267</v>
+        <v>0.3584857602961319</v>
       </c>
       <c r="FA2">
-        <v>86.1240667591095</v>
+        <v>3.33344589920737</v>
       </c>
       <c r="FB2">
-        <v>0.3691699900503526</v>
+        <v>7.685329396238353</v>
       </c>
       <c r="FC2">
-        <v>1848.805923827088</v>
+        <v>23.07206507107876</v>
       </c>
       <c r="FD2">
-        <v>235.5115248004657</v>
+        <v>3.122178437589122</v>
       </c>
       <c r="FE2">
-        <v>1864.394396065611</v>
+        <v>3.831725545742438</v>
       </c>
       <c r="FF2">
-        <v>107.0385439383455</v>
+        <v>5.988166963026407</v>
       </c>
       <c r="FG2">
-        <v>581.6740081259084</v>
+        <v>0.3881186546575552</v>
       </c>
       <c r="FH2">
-        <v>418.3427349841408</v>
+        <v>0.3541024158118863</v>
       </c>
       <c r="FI2">
-        <v>2544.578664066947</v>
+        <v>0.3374892675745966</v>
       </c>
       <c r="FJ2">
-        <v>634.2195840186297</v>
+        <v>8.848134145775456</v>
       </c>
       <c r="FK2">
-        <v>118.0056249836954</v>
+        <v>9.175610615651559</v>
       </c>
       <c r="FL2">
-        <v>0.3335657528605163</v>
+        <v>29.7790720658457</v>
       </c>
       <c r="FM2">
-        <v>416.2983814814451</v>
+        <v>4.175422821935059</v>
       </c>
       <c r="FN2">
-        <v>67.26017194035862</v>
+        <v>0.3373789470917023</v>
       </c>
       <c r="FO2">
-        <v>18.3569205646429</v>
+        <v>0.3650982851909359</v>
       </c>
       <c r="FP2">
-        <v>0.3680207314522235</v>
+        <v>0.3672735198770041</v>
       </c>
       <c r="FQ2">
-        <v>0.3573499932441911</v>
+        <v>6.782081382139818</v>
       </c>
       <c r="FR2">
-        <v>17.65054747230622</v>
+        <v>3.51435952449015</v>
       </c>
       <c r="FS2">
-        <v>611.8386583467222</v>
+        <v>3.329302654000664</v>
       </c>
       <c r="FT2">
-        <v>176.9045039277352</v>
+        <v>2.95274935051961</v>
       </c>
       <c r="FU2">
-        <v>38.51793165406215</v>
+        <v>19.24996529459805</v>
       </c>
       <c r="FV2">
-        <v>189.2684062186786</v>
+        <v>0.3448090146625294</v>
       </c>
       <c r="FW2">
-        <v>67.31888151982633</v>
+        <v>11.6838482197936</v>
       </c>
       <c r="FX2">
-        <v>8.88771488147089</v>
+        <v>3.161660744307696</v>
       </c>
       <c r="FY2">
-        <v>144.8463219822536</v>
+        <v>0.4023673252297345</v>
       </c>
       <c r="FZ2">
-        <v>770.4242160329687</v>
+        <v>25.47036942716538</v>
       </c>
       <c r="GA2">
-        <v>780.4133528102241</v>
+        <v>0.3570199411328907</v>
       </c>
       <c r="GB2">
-        <v>189.2860631695525</v>
+        <v>19.79101309557567</v>
       </c>
       <c r="GC2">
-        <v>97.88523936387536</v>
+        <v>0.9718088684548725</v>
       </c>
       <c r="GD2">
-        <v>0.3884701430378251</v>
+        <v>0.3393970880183155</v>
       </c>
       <c r="GE2">
-        <v>171.3124121316202</v>
+        <v>0.3866969113885375</v>
       </c>
       <c r="GF2">
-        <v>621.7900515510387</v>
+        <v>3.929136024837514</v>
       </c>
       <c r="GG2">
-        <v>640.737988234609</v>
+        <v>5.932604307505851</v>
       </c>
       <c r="GH2">
-        <v>440.1768915899165</v>
+        <v>13.89978268716438</v>
       </c>
       <c r="GI2">
-        <v>0.3962298875797386</v>
+        <v>9.580809597545775</v>
       </c>
       <c r="GJ2">
-        <v>62.15234575945918</v>
+        <v>2.891284314668782</v>
       </c>
       <c r="GK2">
-        <v>424.225219926236</v>
+        <v>0.3481873029725893</v>
       </c>
       <c r="GL2">
-        <v>57.79225453789059</v>
+        <v>19.53316885459934</v>
       </c>
       <c r="GM2">
-        <v>174.0546026311612</v>
+        <v>0.3504105191984999</v>
       </c>
       <c r="GN2">
-        <v>1142.349951892872</v>
+        <v>23.77996494496735</v>
       </c>
       <c r="GO2">
-        <v>1328.825667031901</v>
+        <v>45.45075822041121</v>
       </c>
       <c r="GP2">
-        <v>600.9259532336004</v>
+        <v>0.3806656533437015</v>
       </c>
       <c r="GQ2">
-        <v>230.327498998131</v>
+        <v>0.3338822996852137</v>
       </c>
       <c r="GR2">
-        <v>297.1108562489667</v>
+        <v>0.4111829654039558</v>
       </c>
       <c r="GS2">
-        <v>596.8055374708388</v>
+        <v>18.16044905608387</v>
+      </c>
+      <c r="GT2">
+        <v>22.88733961504156</v>
+      </c>
+      <c r="GU2">
+        <v>0.5485083331722811</v>
+      </c>
+      <c r="GV2">
+        <v>2.870527439380791</v>
+      </c>
+      <c r="GW2">
+        <v>5.756308666995253</v>
+      </c>
+      <c r="GX2">
+        <v>14.84501519613306</v>
+      </c>
+      <c r="GY2">
+        <v>4.087776432437749</v>
+      </c>
+      <c r="GZ2">
+        <v>0.3381104840185564</v>
+      </c>
+      <c r="HA2">
+        <v>4.977520853977099</v>
+      </c>
+      <c r="HB2">
+        <v>18.50692835023315</v>
+      </c>
+      <c r="HC2">
+        <v>0.3439042898516909</v>
+      </c>
+      <c r="HD2">
+        <v>28.43938234147035</v>
+      </c>
+      <c r="HE2">
+        <v>17.74372096683464</v>
+      </c>
+      <c r="HF2">
+        <v>38.30698699444166</v>
+      </c>
+      <c r="HG2">
+        <v>11.74793919420039</v>
+      </c>
+      <c r="HH2">
+        <v>12.40440416443793</v>
+      </c>
+      <c r="HI2">
+        <v>0.5202473984631399</v>
+      </c>
+      <c r="HJ2">
+        <v>4.34459302489042</v>
+      </c>
+      <c r="HK2">
+        <v>0.4747857840046287</v>
+      </c>
+      <c r="HL2">
+        <v>0.3505523209338576</v>
+      </c>
+      <c r="HM2">
+        <v>1.988955260959148</v>
+      </c>
+      <c r="HN2">
+        <v>0.3354331214133217</v>
+      </c>
+      <c r="HO2">
+        <v>18.86218906421294</v>
+      </c>
+      <c r="HP2">
+        <v>2.200896701388471</v>
+      </c>
+      <c r="HQ2">
+        <v>41.34087839866721</v>
+      </c>
+      <c r="HR2">
+        <v>26.19305482130522</v>
+      </c>
+      <c r="HS2">
+        <v>0.3627064282173241</v>
+      </c>
+      <c r="HT2">
+        <v>0.4261937880535933</v>
+      </c>
+      <c r="HU2">
+        <v>22.18575840822918</v>
+      </c>
+      <c r="HV2">
+        <v>19.6973919431179</v>
+      </c>
+      <c r="HW2">
+        <v>6.950004378897955</v>
+      </c>
+      <c r="HX2">
+        <v>5.328623971224117</v>
+      </c>
+      <c r="HY2">
+        <v>16.6529188906141</v>
+      </c>
+      <c r="HZ2">
+        <v>2.16165256787449</v>
+      </c>
+      <c r="IA2">
+        <v>0.338476976090813</v>
+      </c>
+      <c r="IB2">
+        <v>2.247276610848382</v>
+      </c>
+      <c r="IC2">
+        <v>1.872435836094239</v>
+      </c>
+      <c r="ID2">
+        <v>46.27793201593374</v>
+      </c>
+      <c r="IE2">
+        <v>15.0824653317216</v>
+      </c>
+      <c r="IF2">
+        <v>8.060522604341424</v>
+      </c>
+      <c r="IG2">
+        <v>0.3375161342106754</v>
+      </c>
+      <c r="IH2">
+        <v>0.3394260058120901</v>
+      </c>
+      <c r="II2">
+        <v>5.914016608017081</v>
+      </c>
+      <c r="IJ2">
+        <v>16.55521429669545</v>
+      </c>
+      <c r="IK2">
+        <v>0.4553897185493215</v>
+      </c>
+      <c r="IL2">
+        <v>0.6687968509182973</v>
+      </c>
+      <c r="IM2">
+        <v>0.335689247233893</v>
+      </c>
+      <c r="IN2">
+        <v>20.20426704521994</v>
+      </c>
+      <c r="IO2">
+        <v>0.3453647308577706</v>
+      </c>
+      <c r="IP2">
+        <v>4.273532800035483</v>
+      </c>
+      <c r="IQ2">
+        <v>5.36475544395832</v>
+      </c>
+      <c r="IR2">
+        <v>24.913514785901</v>
+      </c>
+      <c r="IS2">
+        <v>0.3339830602468755</v>
+      </c>
+      <c r="IT2">
+        <v>0.3391661417801071</v>
+      </c>
+      <c r="IU2">
+        <v>2.618621520518695</v>
+      </c>
+      <c r="IV2">
+        <v>22.82394144340423</v>
+      </c>
+      <c r="IW2">
+        <v>8.607040920984367</v>
+      </c>
+      <c r="IX2">
+        <v>0.3481352039118856</v>
+      </c>
+      <c r="IY2">
+        <v>5.688094672638086</v>
+      </c>
+      <c r="IZ2">
+        <v>4.951551218118424</v>
+      </c>
+      <c r="JA2">
+        <v>7.784735014886063</v>
+      </c>
+      <c r="JB2">
+        <v>0.3382450859335938</v>
+      </c>
+      <c r="JC2">
+        <v>10.65203531743061</v>
+      </c>
+      <c r="JD2">
+        <v>3.061863212140747</v>
+      </c>
+      <c r="JE2">
+        <v>2.206368172785488</v>
+      </c>
+      <c r="JF2">
+        <v>3.028161840868483</v>
+      </c>
+      <c r="JG2">
+        <v>6.142445832845588</v>
+      </c>
+      <c r="JH2">
+        <v>1.941546567886177</v>
+      </c>
+      <c r="JI2">
+        <v>19.27076644778824</v>
+      </c>
+      <c r="JJ2">
+        <v>3.252118848620288</v>
+      </c>
+      <c r="JK2">
+        <v>18.18511592954014</v>
+      </c>
+      <c r="JL2">
+        <v>6.988876058589247</v>
+      </c>
+      <c r="JM2">
+        <v>19.79749978244841</v>
+      </c>
+      <c r="JN2">
+        <v>2.618833620293542</v>
+      </c>
+      <c r="JO2">
+        <v>1.6467165123517</v>
+      </c>
+      <c r="JP2">
+        <v>0.3422207995204943</v>
+      </c>
+      <c r="JQ2">
+        <v>14.32921830086054</v>
+      </c>
+      <c r="JR2">
+        <v>0.336530870774139</v>
+      </c>
+      <c r="JS2">
+        <v>0.4082934115498572</v>
+      </c>
+      <c r="JT2">
+        <v>0.3556203305488974</v>
+      </c>
+      <c r="JU2">
+        <v>9.926248557415313</v>
+      </c>
+      <c r="JV2">
+        <v>5.146672704637082</v>
+      </c>
+      <c r="JW2">
+        <v>0.3581990129218291</v>
+      </c>
+      <c r="JX2">
+        <v>22.23816168893278</v>
+      </c>
+      <c r="JY2">
+        <v>2.342338381775973</v>
+      </c>
+      <c r="JZ2">
+        <v>2.55310333328146</v>
+      </c>
+      <c r="KA2">
+        <v>30.99689902473928</v>
+      </c>
+      <c r="KB2">
+        <v>5.797873475741236</v>
+      </c>
+      <c r="KC2">
+        <v>11.57060637522297</v>
+      </c>
+      <c r="KD2">
+        <v>0.3750855148169217</v>
+      </c>
+      <c r="KE2">
+        <v>10.16345526031652</v>
+      </c>
+      <c r="KF2">
+        <v>21.16466556939103</v>
+      </c>
+      <c r="KG2">
+        <v>4.993325914105677</v>
+      </c>
+      <c r="KH2">
+        <v>5.275589953802637</v>
+      </c>
+      <c r="KI2">
+        <v>0.3369732725512498</v>
+      </c>
+      <c r="KJ2">
+        <v>0.3515165821123503</v>
+      </c>
+      <c r="KK2">
+        <v>4.207635869284599</v>
+      </c>
+      <c r="KL2">
+        <v>4.691663864359141</v>
+      </c>
+      <c r="KM2">
+        <v>0.3655437248733598</v>
+      </c>
+      <c r="KN2">
+        <v>0.3344029078243972</v>
+      </c>
+      <c r="KO2">
+        <v>0.4744832658599663</v>
+      </c>
+      <c r="KP2">
+        <v>0.3435124271202161</v>
+      </c>
+      <c r="KQ2">
+        <v>0.3602877678988609</v>
+      </c>
+      <c r="KR2">
+        <v>0.3435966851223279</v>
+      </c>
+      <c r="KS2">
+        <v>0.3431972030219079</v>
+      </c>
+      <c r="KT2">
+        <v>31.49977251454889</v>
+      </c>
+      <c r="KU2">
+        <v>0.3370916474768466</v>
+      </c>
+      <c r="KV2">
+        <v>5.72281373212096</v>
+      </c>
+      <c r="KW2">
+        <v>0.3681866842922226</v>
+      </c>
+      <c r="KX2">
+        <v>44.90400072840454</v>
+      </c>
+      <c r="KY2">
+        <v>36.94889616626573</v>
+      </c>
+      <c r="KZ2">
+        <v>2.80831911481578</v>
+      </c>
+      <c r="LA2">
+        <v>0.3516815614733184</v>
+      </c>
+      <c r="LB2">
+        <v>0.3339865574268976</v>
+      </c>
+      <c r="LC2">
+        <v>0.3339590286590273</v>
+      </c>
+      <c r="LD2">
+        <v>0.3439230914264106</v>
+      </c>
+      <c r="LE2">
+        <v>36.33258851782831</v>
+      </c>
+      <c r="LF2">
+        <v>2.065003334788196</v>
+      </c>
+      <c r="LG2">
+        <v>5.77131730236277</v>
+      </c>
+      <c r="LH2">
+        <v>9.309460561666002</v>
+      </c>
+      <c r="LI2">
+        <v>5.178000123254355</v>
+      </c>
+      <c r="LJ2">
+        <v>36.91200535039547</v>
+      </c>
+      <c r="LK2">
+        <v>12.77225620869973</v>
+      </c>
+      <c r="LL2">
+        <v>134.311863244647</v>
+      </c>
+      <c r="LM2">
+        <v>17.89417072755376</v>
+      </c>
+      <c r="LN2">
+        <v>5.470199022655484</v>
+      </c>
+      <c r="LO2">
+        <v>24.40611550264883</v>
+      </c>
+      <c r="LP2">
+        <v>5.973914360077067</v>
+      </c>
+      <c r="LQ2">
+        <v>8.17356304985926</v>
+      </c>
+      <c r="LR2">
+        <v>16.62113294237932</v>
+      </c>
+      <c r="LS2">
+        <v>4.174027940479847</v>
+      </c>
+      <c r="LT2">
+        <v>6.536029357189309</v>
+      </c>
+      <c r="LU2">
+        <v>4.193454992261897</v>
+      </c>
+      <c r="LV2">
+        <v>0.3539593828821325</v>
+      </c>
+      <c r="LW2">
+        <v>23.7829493711145</v>
+      </c>
+      <c r="LX2">
+        <v>2.472733975014747</v>
+      </c>
+      <c r="LY2">
+        <v>0.5271307044389881</v>
+      </c>
+      <c r="LZ2">
+        <v>3.16125787145823</v>
+      </c>
+      <c r="MA2">
+        <v>4.746234916494719</v>
+      </c>
+      <c r="MB2">
+        <v>13.55442348363132</v>
+      </c>
+      <c r="MC2">
+        <v>0.3339872121902249</v>
+      </c>
+      <c r="MD2">
+        <v>12.12950944383598</v>
+      </c>
+      <c r="ME2">
+        <v>15.73961702300462</v>
+      </c>
+      <c r="MF2">
+        <v>0.3380066347383909</v>
+      </c>
+      <c r="MG2">
+        <v>0.3404997737075884</v>
+      </c>
+      <c r="MH2">
+        <v>0.3350925607171804</v>
+      </c>
+      <c r="MI2">
+        <v>0.3682111759172335</v>
+      </c>
+      <c r="MJ2">
+        <v>2.475809949734613</v>
+      </c>
+      <c r="MK2">
+        <v>0.3641137696743977</v>
+      </c>
+      <c r="ML2">
+        <v>0.3371444638445221</v>
+      </c>
+      <c r="MM2">
+        <v>25.08712040827339</v>
+      </c>
+      <c r="MN2">
+        <v>10.23870807606495</v>
+      </c>
+      <c r="MO2">
+        <v>9.919127241925256</v>
+      </c>
+      <c r="MP2">
+        <v>6.843208531860022</v>
+      </c>
+      <c r="MQ2">
+        <v>8.020812547471294</v>
+      </c>
+      <c r="MR2">
+        <v>5.177303807097469</v>
+      </c>
+      <c r="MS2">
+        <v>6.64197751185857</v>
+      </c>
+      <c r="MT2">
+        <v>13.84963505129876</v>
+      </c>
+      <c r="MU2">
+        <v>22.85824279616527</v>
+      </c>
+      <c r="MV2">
+        <v>0.3650284770563715</v>
+      </c>
+      <c r="MW2">
+        <v>25.76053328738501</v>
+      </c>
+      <c r="MX2">
+        <v>2.646043761185691</v>
+      </c>
+      <c r="MY2">
+        <v>7.408553202250086</v>
+      </c>
+      <c r="MZ2">
+        <v>4.855016657508593</v>
+      </c>
+      <c r="NA2">
+        <v>8.753928474830634</v>
+      </c>
+      <c r="NB2">
+        <v>5.598162589116171</v>
+      </c>
+      <c r="NC2">
+        <v>3.368623341075716</v>
+      </c>
+      <c r="ND2">
+        <v>0.4549010711334254</v>
+      </c>
+      <c r="NE2">
+        <v>1.038830071181295</v>
+      </c>
+      <c r="NF2">
+        <v>2.663391088181898</v>
+      </c>
+      <c r="NG2">
+        <v>0.3513438825363198</v>
+      </c>
+      <c r="NH2">
+        <v>2.50844109712073</v>
+      </c>
+      <c r="NI2">
+        <v>9.613180854942541</v>
+      </c>
+      <c r="NJ2">
+        <v>5.545021329348833</v>
+      </c>
+      <c r="NK2">
+        <v>4.053534047168357</v>
+      </c>
+      <c r="NL2">
+        <v>5.93469381460211</v>
+      </c>
+      <c r="NM2">
+        <v>2.180423106413157</v>
+      </c>
+      <c r="NN2">
+        <v>16.95426559288393</v>
+      </c>
+      <c r="NO2">
+        <v>0.352570891274993</v>
+      </c>
+      <c r="NP2">
+        <v>2.793082303942826</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3508033309604651</v>
+      </c>
+      <c r="NR2">
+        <v>0.3389130669508715</v>
+      </c>
+      <c r="NS2">
+        <v>0.3342106265449859</v>
+      </c>
+      <c r="NT2">
+        <v>49.79614702764255</v>
+      </c>
+      <c r="NU2">
+        <v>0.3557486650891911</v>
+      </c>
+      <c r="NV2">
+        <v>4.09930982183786</v>
+      </c>
+      <c r="NW2">
+        <v>14.90976469871598</v>
+      </c>
+      <c r="NX2">
+        <v>4.707526737178829</v>
+      </c>
+      <c r="NY2">
+        <v>0.3429365566585358</v>
+      </c>
+      <c r="NZ2">
+        <v>2.213492995398168</v>
+      </c>
+      <c r="OA2">
+        <v>8.686559875951394</v>
+      </c>
+      <c r="OB2">
+        <v>0.3341709501261723</v>
+      </c>
+      <c r="OC2">
+        <v>51.83019555917709</v>
+      </c>
+      <c r="OD2">
+        <v>31.17123079658419</v>
+      </c>
+      <c r="OE2">
+        <v>24.40146343551718</v>
+      </c>
+      <c r="OF2">
+        <v>0.333979843977671</v>
+      </c>
+      <c r="OG2">
+        <v>7.460304198554634</v>
+      </c>
+      <c r="OH2">
+        <v>6.551068528958304</v>
+      </c>
+      <c r="OI2">
+        <v>4.342833249766233</v>
+      </c>
+      <c r="OJ2">
+        <v>31.89320027863783</v>
+      </c>
+      <c r="OK2">
+        <v>4.82009527863824</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>38.22366653451818</v>
+        <v>4.87180091371536</v>
       </c>
       <c r="C3">
-        <v>0.3394397932941173</v>
+        <v>0.3527232179800443</v>
       </c>
       <c r="D3">
-        <v>854.7231375585665</v>
+        <v>2.065848333464841</v>
       </c>
       <c r="E3">
-        <v>50.88967482648309</v>
+        <v>2.894156358815921</v>
       </c>
       <c r="F3">
-        <v>117.2691038209556</v>
+        <v>0.7272266591073091</v>
       </c>
       <c r="G3">
-        <v>223.3414164141581</v>
+        <v>27.90596024300313</v>
       </c>
       <c r="H3">
-        <v>1488.976579594509</v>
+        <v>3.819676416382916</v>
       </c>
       <c r="I3">
-        <v>0.3429643565760276</v>
+        <v>0.3740759776370438</v>
       </c>
       <c r="J3">
-        <v>0.3522966705250373</v>
+        <v>0.3377584941079687</v>
       </c>
       <c r="K3">
-        <v>362.5279913300874</v>
+        <v>0.3478884147445608</v>
       </c>
       <c r="L3">
-        <v>0.377364462766664</v>
+        <v>6.65363421293387</v>
       </c>
       <c r="M3">
-        <v>358.8623679055317</v>
+        <v>0.341805526149234</v>
       </c>
       <c r="N3">
-        <v>32.4016182550718</v>
+        <v>0.3361934514119505</v>
       </c>
       <c r="O3">
-        <v>0.3643094556217062</v>
+        <v>0.3761341158879836</v>
       </c>
       <c r="P3">
-        <v>865.3333882208054</v>
+        <v>12.86936590741888</v>
       </c>
       <c r="Q3">
-        <v>125.7237686388427</v>
+        <v>0.3442851705578721</v>
       </c>
       <c r="R3">
-        <v>709.0073520042572</v>
+        <v>0.3960178227443479</v>
       </c>
       <c r="S3">
-        <v>2449.195528401963</v>
+        <v>0.5423222500621834</v>
       </c>
       <c r="T3">
-        <v>718.2114200461388</v>
+        <v>0.3362509133247272</v>
       </c>
       <c r="U3">
-        <v>2222.984958351281</v>
+        <v>0.6521280275388757</v>
       </c>
       <c r="V3">
-        <v>698.5690587904853</v>
+        <v>0.6387357993324612</v>
       </c>
       <c r="W3">
-        <v>0.3740831026996566</v>
+        <v>0.3620333115119712</v>
       </c>
       <c r="X3">
-        <v>98.94615330504459</v>
+        <v>0.3736967162772662</v>
       </c>
       <c r="Y3">
-        <v>112.3070019493005</v>
+        <v>0.336726992543787</v>
       </c>
       <c r="Z3">
-        <v>242.3656224095538</v>
+        <v>0.336478009336774</v>
       </c>
       <c r="AA3">
-        <v>7379.76706665375</v>
+        <v>0.4110026623459445</v>
       </c>
       <c r="AB3">
-        <v>852.3659218103602</v>
+        <v>0.3622498340782834</v>
       </c>
       <c r="AC3">
-        <v>23.64036069704099</v>
+        <v>10.50365857227086</v>
       </c>
       <c r="AD3">
-        <v>162.5271769818087</v>
+        <v>6.284815917833869</v>
       </c>
       <c r="AE3">
-        <v>135.2259812549546</v>
+        <v>1.782956198903677</v>
       </c>
       <c r="AF3">
-        <v>979.8149813346519</v>
+        <v>22.9921989766177</v>
       </c>
       <c r="AG3">
-        <v>533.2118394088825</v>
+        <v>0.3810538475973746</v>
       </c>
       <c r="AH3">
-        <v>0.3530585362845062</v>
+        <v>3.039786718998937</v>
       </c>
       <c r="AI3">
-        <v>0.3925637882034192</v>
+        <v>4.773664780976663</v>
       </c>
       <c r="AJ3">
-        <v>0.4143302587903778</v>
+        <v>51.54059239462305</v>
       </c>
       <c r="AK3">
-        <v>0.3641009034708258</v>
+        <v>0.3689043241647441</v>
       </c>
       <c r="AL3">
-        <v>2372.837445752792</v>
+        <v>0.4183703847426361</v>
       </c>
       <c r="AM3">
-        <v>2194.214299272774</v>
+        <v>0.3671089551429192</v>
       </c>
       <c r="AN3">
-        <v>58.30781765382253</v>
+        <v>0.336547618514975</v>
       </c>
       <c r="AO3">
-        <v>101.317989550421</v>
+        <v>0.5253017254641177</v>
       </c>
       <c r="AP3">
-        <v>0.3494976383080478</v>
+        <v>0.3363576327693746</v>
       </c>
       <c r="AQ3">
-        <v>35.01963661613726</v>
+        <v>8.940362761579321</v>
       </c>
       <c r="AR3">
-        <v>154.4346573883116</v>
+        <v>8.021907963904516</v>
       </c>
       <c r="AS3">
-        <v>466.8635595997433</v>
+        <v>0.3937394751203321</v>
       </c>
       <c r="AT3">
-        <v>685.9951015910067</v>
+        <v>1.272975788146247</v>
       </c>
       <c r="AU3">
-        <v>467.1696037336329</v>
+        <v>0.5655851666477411</v>
       </c>
       <c r="AV3">
-        <v>446.2576330882384</v>
+        <v>0.3761864503972136</v>
       </c>
       <c r="AW3">
-        <v>51.55084642940456</v>
+        <v>0.3402866101893587</v>
       </c>
       <c r="AX3">
-        <v>387.5963295263022</v>
+        <v>0.3362761611353535</v>
       </c>
       <c r="AY3">
-        <v>408.8422639799329</v>
+        <v>1.683484487929906</v>
       </c>
       <c r="AZ3">
-        <v>578.3062965789546</v>
+        <v>1.411546960364895</v>
       </c>
       <c r="BA3">
-        <v>568.9582541137355</v>
+        <v>2.670900482559394</v>
       </c>
       <c r="BB3">
-        <v>296.9569544130377</v>
+        <v>0.4156854985235182</v>
       </c>
       <c r="BC3">
-        <v>354.5819651163899</v>
+        <v>0.3476953603739546</v>
       </c>
       <c r="BD3">
-        <v>927.9693167568415</v>
+        <v>3.656556300014691</v>
       </c>
       <c r="BE3">
-        <v>516.6154892136499</v>
+        <v>5.830074041312623</v>
       </c>
       <c r="BF3">
-        <v>0.3596365888130679</v>
+        <v>0.38772546767608</v>
       </c>
       <c r="BG3">
-        <v>354.2289116580473</v>
+        <v>0.3359781459697077</v>
       </c>
       <c r="BH3">
-        <v>183.3356772394357</v>
+        <v>0.3392460805582731</v>
       </c>
       <c r="BI3">
-        <v>0.3375525281696852</v>
+        <v>33.77016724865347</v>
       </c>
       <c r="BJ3">
-        <v>47.30941966040134</v>
+        <v>0.3389289492615452</v>
       </c>
       <c r="BK3">
-        <v>0.3637196659464906</v>
+        <v>0.3855008184166948</v>
       </c>
       <c r="BL3">
-        <v>0.3512466512037652</v>
+        <v>3.080840202246291</v>
       </c>
       <c r="BM3">
-        <v>1593.635094096121</v>
+        <v>12.16851980651126</v>
       </c>
       <c r="BN3">
-        <v>70.73804198894507</v>
+        <v>5.986117539481591</v>
       </c>
       <c r="BO3">
-        <v>0.3540238735938853</v>
+        <v>1.527270203583897</v>
       </c>
       <c r="BP3">
-        <v>1686.55091115979</v>
+        <v>0.3362721879943906</v>
       </c>
       <c r="BQ3">
-        <v>0.3914097403249708</v>
+        <v>0.3448570005142625</v>
       </c>
       <c r="BR3">
-        <v>921.6208566215438</v>
+        <v>0.3501025370380922</v>
       </c>
       <c r="BS3">
-        <v>408.9369426741605</v>
+        <v>0.3378256441048864</v>
       </c>
       <c r="BT3">
-        <v>376.2473960207107</v>
+        <v>0.3849874982578036</v>
       </c>
       <c r="BU3">
-        <v>0.3486592121508842</v>
+        <v>0.3434762489396265</v>
       </c>
       <c r="BV3">
-        <v>122.8206722017399</v>
+        <v>0.3817780078426296</v>
       </c>
       <c r="BW3">
-        <v>2.304743230947602</v>
+        <v>0.3719038344010617</v>
       </c>
       <c r="BX3">
-        <v>30.93799061584555</v>
+        <v>0.3371696264929965</v>
       </c>
       <c r="BY3">
-        <v>0.4091513975901991</v>
+        <v>0.3846571031791124</v>
       </c>
       <c r="BZ3">
-        <v>167.2541945662449</v>
+        <v>0.3405451833717446</v>
       </c>
       <c r="CA3">
-        <v>0.3406845967707451</v>
+        <v>0.4148107194667173</v>
       </c>
       <c r="CB3">
-        <v>0.3404252592160096</v>
+        <v>4.544743122872819</v>
       </c>
       <c r="CC3">
-        <v>7.78357012575963</v>
+        <v>0.3488319656224452</v>
       </c>
       <c r="CD3">
-        <v>0.3783669626345201</v>
+        <v>0.3636773578336291</v>
       </c>
       <c r="CE3">
-        <v>4.749440939775337</v>
+        <v>0.3434207840576295</v>
       </c>
       <c r="CF3">
-        <v>28.25296947651047</v>
+        <v>0.3426229999246542</v>
       </c>
       <c r="CG3">
-        <v>771.9011250383668</v>
+        <v>17.41985037721923</v>
       </c>
       <c r="CH3">
-        <v>719.8244152648858</v>
+        <v>0.3477118318868333</v>
       </c>
       <c r="CI3">
-        <v>3207.212684118078</v>
+        <v>0.3376405664141438</v>
       </c>
       <c r="CJ3">
-        <v>682.3023901766405</v>
+        <v>0.3409757879645945</v>
       </c>
       <c r="CK3">
-        <v>474.479100605723</v>
+        <v>0.3860758307245379</v>
       </c>
       <c r="CL3">
-        <v>0.4822256318751841</v>
+        <v>0.4437533502912662</v>
       </c>
       <c r="CM3">
-        <v>2253.945550407906</v>
+        <v>4.645601808144472</v>
       </c>
       <c r="CN3">
-        <v>270.7617808330572</v>
+        <v>3.047859793677275</v>
       </c>
       <c r="CO3">
-        <v>135.2275069168632</v>
+        <v>2.12037976722839</v>
       </c>
       <c r="CP3">
-        <v>0.3436120997105719</v>
+        <v>0.4114938100770473</v>
       </c>
       <c r="CQ3">
-        <v>0.414301277119256</v>
+        <v>0.3630492027659396</v>
       </c>
       <c r="CR3">
-        <v>0.3640983985386831</v>
+        <v>0.4140385736791317</v>
       </c>
       <c r="CS3">
-        <v>0.3619700711303505</v>
+        <v>0.3541338421930817</v>
       </c>
       <c r="CT3">
-        <v>0.3388616695899194</v>
+        <v>0.3421180877272678</v>
       </c>
       <c r="CU3">
-        <v>109.5520820204484</v>
+        <v>0.3462241276463174</v>
       </c>
       <c r="CV3">
-        <v>7.083929606200927</v>
+        <v>0.3551031265302295</v>
       </c>
       <c r="CW3">
-        <v>326.497787585875</v>
+        <v>0.3369238400495547</v>
       </c>
       <c r="CX3">
-        <v>740.3174343505791</v>
+        <v>13.70623652983864</v>
       </c>
       <c r="CY3">
-        <v>2340.010704802468</v>
+        <v>2.299546507070296</v>
       </c>
       <c r="CZ3">
-        <v>2.052411611269125</v>
+        <v>0.3663770591614244</v>
       </c>
       <c r="DA3">
-        <v>418.8619148236834</v>
+        <v>5.901998999539929</v>
       </c>
       <c r="DB3">
-        <v>0.3357446845724181</v>
+        <v>14.90245983761248</v>
       </c>
       <c r="DC3">
-        <v>1151.501776842069</v>
+        <v>0.343276932435722</v>
       </c>
       <c r="DD3">
-        <v>0.3540170097463153</v>
+        <v>2.462553743305601</v>
       </c>
       <c r="DE3">
-        <v>1935.108665926989</v>
+        <v>7.302084494667005</v>
       </c>
       <c r="DF3">
-        <v>1409.843379501638</v>
+        <v>3.562319474978812</v>
       </c>
       <c r="DG3">
-        <v>2010.96284144315</v>
+        <v>0.3893809502086278</v>
       </c>
       <c r="DH3">
-        <v>98.96794144857404</v>
+        <v>0.3726978171316594</v>
       </c>
       <c r="DI3">
-        <v>915.2440676728755</v>
+        <v>0.3403805555199719</v>
       </c>
       <c r="DJ3">
-        <v>287.3500124870276</v>
+        <v>0.3575826959576257</v>
       </c>
       <c r="DK3">
-        <v>323.3032040283971</v>
+        <v>4.986209041320167</v>
       </c>
       <c r="DL3">
-        <v>262.8892695129424</v>
+        <v>2.452729814716276</v>
       </c>
       <c r="DM3">
-        <v>402.0239232429016</v>
+        <v>0.3424610609953467</v>
       </c>
       <c r="DN3">
-        <v>270.854151676655</v>
+        <v>0.3553177573488959</v>
       </c>
       <c r="DO3">
-        <v>7.256513350364947</v>
+        <v>0.8322505630014774</v>
       </c>
       <c r="DP3">
-        <v>633.4114896069835</v>
+        <v>0.3348624234971115</v>
       </c>
       <c r="DQ3">
-        <v>343.7440126636351</v>
+        <v>0.3374091047610762</v>
       </c>
       <c r="DR3">
-        <v>334.8645314130639</v>
+        <v>0.336997351762463</v>
       </c>
       <c r="DS3">
-        <v>538.1804974893727</v>
+        <v>52.00730600308843</v>
       </c>
       <c r="DT3">
-        <v>394.6759283140876</v>
+        <v>15.40510901183025</v>
       </c>
       <c r="DU3">
-        <v>175.3252887075113</v>
+        <v>0.3392819620028411</v>
       </c>
       <c r="DV3">
-        <v>58.33329219922568</v>
+        <v>11.92714806756104</v>
       </c>
       <c r="DW3">
-        <v>0.3428735880066704</v>
+        <v>5.844106558109913</v>
       </c>
       <c r="DX3">
-        <v>0.3689001746634265</v>
+        <v>0.3898098068811852</v>
       </c>
       <c r="DY3">
-        <v>0.3983964781021876</v>
+        <v>0.3952972381018572</v>
       </c>
       <c r="DZ3">
-        <v>531.926505402148</v>
+        <v>0.3367174600924818</v>
       </c>
       <c r="EA3">
-        <v>867.1567889984657</v>
+        <v>0.3447323319489645</v>
       </c>
       <c r="EB3">
-        <v>718.1159561266186</v>
+        <v>2.327836181345277</v>
       </c>
       <c r="EC3">
-        <v>34.06136738307086</v>
+        <v>1.297164382498722</v>
       </c>
       <c r="ED3">
-        <v>0.4366236509051654</v>
+        <v>0.3550781821139613</v>
       </c>
       <c r="EE3">
-        <v>50.61179956253515</v>
+        <v>0.3753787955088266</v>
       </c>
       <c r="EF3">
-        <v>417.8171359300933</v>
+        <v>0.3432396973887876</v>
       </c>
       <c r="EG3">
-        <v>0.3385289136475747</v>
+        <v>2.128273518182232</v>
       </c>
       <c r="EH3">
-        <v>281.7930129476051</v>
+        <v>2.158748616835547</v>
       </c>
       <c r="EI3">
-        <v>1381.649067034388</v>
+        <v>0.3961411023917708</v>
       </c>
       <c r="EJ3">
-        <v>298.9812919722735</v>
+        <v>0.3663636573226293</v>
       </c>
       <c r="EK3">
-        <v>15.05077347436166</v>
+        <v>37.46889376725233</v>
       </c>
       <c r="EL3">
-        <v>853.2208500825133</v>
+        <v>0.3407478278145982</v>
       </c>
       <c r="EM3">
-        <v>172.7684222081045</v>
+        <v>0.4457828582268302</v>
       </c>
       <c r="EN3">
-        <v>0.3388617100796675</v>
+        <v>19.19948734708986</v>
       </c>
       <c r="EO3">
-        <v>3953.065666653588</v>
+        <v>10.73441718004773</v>
       </c>
       <c r="EP3">
-        <v>0.3528948895122005</v>
+        <v>0.3355467903483022</v>
       </c>
       <c r="EQ3">
-        <v>0.3715192867297511</v>
+        <v>0.3368042954660237</v>
       </c>
       <c r="ER3">
-        <v>16.8273861600268</v>
+        <v>0.338676414002847</v>
       </c>
       <c r="ES3">
-        <v>0.3416982075987129</v>
+        <v>0.3384882191697273</v>
       </c>
       <c r="ET3">
-        <v>0.3513032186776087</v>
+        <v>2.860862902889091</v>
       </c>
       <c r="EU3">
-        <v>659.2957055104484</v>
+        <v>0.3815275421925405</v>
       </c>
       <c r="EV3">
-        <v>280.5274476271951</v>
+        <v>0.3414578793024372</v>
       </c>
       <c r="EW3">
-        <v>1243.286222914298</v>
+        <v>0.3457628976158647</v>
       </c>
       <c r="EX3">
-        <v>0.3718922435836637</v>
+        <v>0.363848855194866</v>
       </c>
       <c r="EY3">
-        <v>356.8858811835808</v>
+        <v>0.4095836380014586</v>
       </c>
       <c r="EZ3">
-        <v>2599.343923771002</v>
+        <v>4.087608903194858</v>
       </c>
       <c r="FA3">
-        <v>616.7361962717483</v>
+        <v>0.3379720338631823</v>
       </c>
       <c r="FB3">
-        <v>262.2866320708339</v>
+        <v>0.3817635254003329</v>
       </c>
       <c r="FC3">
-        <v>41.80608586488344</v>
+        <v>0.4120712255746328</v>
       </c>
       <c r="FD3">
-        <v>112.1503823748808</v>
+        <v>0.3364543430252533</v>
       </c>
       <c r="FE3">
-        <v>4780.292223643617</v>
+        <v>0.3379354188927947</v>
       </c>
       <c r="FF3">
-        <v>301.541340771228</v>
+        <v>0.3357963474047279</v>
       </c>
       <c r="FG3">
-        <v>270.7017694409475</v>
+        <v>21.02802368613998</v>
       </c>
       <c r="FH3">
-        <v>617.2569122611968</v>
+        <v>2.089948103361779</v>
       </c>
       <c r="FI3">
-        <v>0.7125611912847025</v>
+        <v>1.648325738687472</v>
       </c>
       <c r="FJ3">
-        <v>1096.374647944552</v>
+        <v>0.354709491596333</v>
       </c>
       <c r="FK3">
-        <v>291.648542702263</v>
+        <v>0.3498764885546458</v>
       </c>
       <c r="FL3">
-        <v>0.3338537652569071</v>
+        <v>0.3490370982075249</v>
       </c>
       <c r="FM3">
-        <v>0.3635706674486165</v>
+        <v>0.3352612047940563</v>
       </c>
       <c r="FN3">
-        <v>0.4055663005973438</v>
+        <v>4.205676120506615</v>
       </c>
       <c r="FO3">
-        <v>425.3029174718732</v>
+        <v>0.3748998998854466</v>
       </c>
       <c r="FP3">
-        <v>176.2922068695626</v>
+        <v>0.3560605637866732</v>
       </c>
       <c r="FQ3">
-        <v>1965.605023245054</v>
+        <v>0.3371006518394064</v>
       </c>
       <c r="FR3">
-        <v>238.0019345695793</v>
+        <v>0.3384603912206862</v>
       </c>
       <c r="FS3">
-        <v>525.2701640867912</v>
+        <v>0.3404543818132345</v>
       </c>
       <c r="FT3">
-        <v>121.9530417627928</v>
+        <v>0.3369866951766789</v>
       </c>
       <c r="FU3">
-        <v>850.2866766998671</v>
+        <v>0.3632613214447996</v>
       </c>
       <c r="FV3">
-        <v>188.7666284257577</v>
+        <v>0.3583800796841866</v>
       </c>
       <c r="FW3">
-        <v>0.3465924625244688</v>
+        <v>0.3373705240113564</v>
       </c>
       <c r="FX3">
-        <v>129.7772764553578</v>
+        <v>0.9450057831511494</v>
       </c>
       <c r="FY3">
-        <v>88.65366057800095</v>
+        <v>16.31326361389003</v>
       </c>
       <c r="FZ3">
-        <v>257.1011579776084</v>
+        <v>0.3462814044868174</v>
       </c>
       <c r="GA3">
-        <v>548.6938948995601</v>
+        <v>4.318493233154183</v>
       </c>
       <c r="GB3">
-        <v>867.6391629332406</v>
+        <v>0.3680953408446825</v>
       </c>
       <c r="GC3">
-        <v>616.6868986095188</v>
+        <v>0.3408432833292295</v>
       </c>
       <c r="GD3">
-        <v>730.2719352433094</v>
+        <v>0.3382927121267555</v>
       </c>
       <c r="GE3">
-        <v>12.05877127695624</v>
+        <v>8.127690340395715</v>
       </c>
       <c r="GF3">
-        <v>130.4998662691443</v>
+        <v>0.3869053426154941</v>
       </c>
       <c r="GG3">
-        <v>292.4192536391906</v>
+        <v>0.3400274618680603</v>
       </c>
       <c r="GH3">
-        <v>1236.785034351843</v>
+        <v>0.3403744401488809</v>
       </c>
       <c r="GI3">
-        <v>105.2630189729807</v>
+        <v>0.3584283130934948</v>
       </c>
       <c r="GJ3">
-        <v>647.5031021846746</v>
+        <v>0.3380122072467869</v>
       </c>
       <c r="GK3">
-        <v>284.6539199973431</v>
+        <v>17.03030712531718</v>
       </c>
       <c r="GL3">
-        <v>197.9349877793653</v>
+        <v>0.3378693561321318</v>
       </c>
       <c r="GM3">
-        <v>2694.287600481316</v>
+        <v>0.3699532318899077</v>
       </c>
       <c r="GN3">
-        <v>1349.282912387017</v>
+        <v>0.4611645808029194</v>
       </c>
       <c r="GO3">
-        <v>42.99179929933857</v>
+        <v>0.3467412957994999</v>
       </c>
       <c r="GP3">
-        <v>0.3459626495486458</v>
+        <v>4.538710974401864</v>
       </c>
       <c r="GQ3">
-        <v>0.3382753455200135</v>
+        <v>1.449013072873675</v>
       </c>
       <c r="GR3">
-        <v>175.070445630427</v>
+        <v>5.633469355885927</v>
       </c>
       <c r="GS3">
-        <v>870.8165602103252</v>
+        <v>4.111580136074458</v>
+      </c>
+      <c r="GT3">
+        <v>11.10699126343377</v>
+      </c>
+      <c r="GU3">
+        <v>2.019086744979959</v>
+      </c>
+      <c r="GV3">
+        <v>0.3444780931918905</v>
+      </c>
+      <c r="GW3">
+        <v>0.3940074920168537</v>
+      </c>
+      <c r="GX3">
+        <v>0.6639823693448844</v>
+      </c>
+      <c r="GY3">
+        <v>0.3596266181363388</v>
+      </c>
+      <c r="GZ3">
+        <v>39.52738145109014</v>
+      </c>
+      <c r="HA3">
+        <v>1.844565311646839</v>
+      </c>
+      <c r="HB3">
+        <v>0.3587874709898622</v>
+      </c>
+      <c r="HC3">
+        <v>5.187119929481439</v>
+      </c>
+      <c r="HD3">
+        <v>1.581089940587455</v>
+      </c>
+      <c r="HE3">
+        <v>0.3350362381420991</v>
+      </c>
+      <c r="HF3">
+        <v>0.3937170408902188</v>
+      </c>
+      <c r="HG3">
+        <v>0.3414767307446471</v>
+      </c>
+      <c r="HH3">
+        <v>8.281540854370231</v>
+      </c>
+      <c r="HI3">
+        <v>6.806195985091699</v>
+      </c>
+      <c r="HJ3">
+        <v>0.3424395319837104</v>
+      </c>
+      <c r="HK3">
+        <v>4.62805442235201</v>
+      </c>
+      <c r="HL3">
+        <v>8.764135438562127</v>
+      </c>
+      <c r="HM3">
+        <v>0.3354980774802165</v>
+      </c>
+      <c r="HN3">
+        <v>2.713674835953484</v>
+      </c>
+      <c r="HO3">
+        <v>0.3409251764328829</v>
+      </c>
+      <c r="HP3">
+        <v>0.3630443545657744</v>
+      </c>
+      <c r="HQ3">
+        <v>5.679082685427469</v>
+      </c>
+      <c r="HR3">
+        <v>0.478708318567302</v>
+      </c>
+      <c r="HS3">
+        <v>4.748569396613013</v>
+      </c>
+      <c r="HT3">
+        <v>10.52777666287417</v>
+      </c>
+      <c r="HU3">
+        <v>0.523402401629748</v>
+      </c>
+      <c r="HV3">
+        <v>147.5956094492911</v>
+      </c>
+      <c r="HW3">
+        <v>0.3534438797766706</v>
+      </c>
+      <c r="HX3">
+        <v>0.3418984771298825</v>
+      </c>
+      <c r="HY3">
+        <v>0.4222210666975418</v>
+      </c>
+      <c r="HZ3">
+        <v>0.3376509419883696</v>
+      </c>
+      <c r="IA3">
+        <v>0.3572904630398737</v>
+      </c>
+      <c r="IB3">
+        <v>0.3357787565597408</v>
+      </c>
+      <c r="IC3">
+        <v>0.3416631580015089</v>
+      </c>
+      <c r="ID3">
+        <v>0.3512584584590008</v>
+      </c>
+      <c r="IE3">
+        <v>0.3967020391299435</v>
+      </c>
+      <c r="IF3">
+        <v>0.3619422393046233</v>
+      </c>
+      <c r="IG3">
+        <v>0.3538103873005951</v>
+      </c>
+      <c r="IH3">
+        <v>0.3397257046465996</v>
+      </c>
+      <c r="II3">
+        <v>0.3411319632321686</v>
+      </c>
+      <c r="IJ3">
+        <v>1.716426867896009</v>
+      </c>
+      <c r="IK3">
+        <v>10.04230212088768</v>
+      </c>
+      <c r="IL3">
+        <v>2.412790008467408</v>
+      </c>
+      <c r="IM3">
+        <v>1.426236144843607</v>
+      </c>
+      <c r="IN3">
+        <v>0.34531734938688</v>
+      </c>
+      <c r="IO3">
+        <v>2.71570696408643</v>
+      </c>
+      <c r="IP3">
+        <v>12.76260926288296</v>
+      </c>
+      <c r="IQ3">
+        <v>0.3369366561206175</v>
+      </c>
+      <c r="IR3">
+        <v>0.4825320621752549</v>
+      </c>
+      <c r="IS3">
+        <v>1.232962420752626</v>
+      </c>
+      <c r="IT3">
+        <v>17.05954629789118</v>
+      </c>
+      <c r="IU3">
+        <v>0.3357422179381821</v>
+      </c>
+      <c r="IV3">
+        <v>0.3444087208829368</v>
+      </c>
+      <c r="IW3">
+        <v>0.4023442822922869</v>
+      </c>
+      <c r="IX3">
+        <v>2.172392110701398</v>
+      </c>
+      <c r="IY3">
+        <v>0.347340595308448</v>
+      </c>
+      <c r="IZ3">
+        <v>0.3387591642522568</v>
+      </c>
+      <c r="JA3">
+        <v>0.3484093884556877</v>
+      </c>
+      <c r="JB3">
+        <v>26.28174878119291</v>
+      </c>
+      <c r="JC3">
+        <v>0.3464447358116146</v>
+      </c>
+      <c r="JD3">
+        <v>0.3358524495777181</v>
+      </c>
+      <c r="JE3">
+        <v>0.3362800855299651</v>
+      </c>
+      <c r="JF3">
+        <v>39.61063916650297</v>
+      </c>
+      <c r="JG3">
+        <v>0.3632429121426633</v>
+      </c>
+      <c r="JH3">
+        <v>0.3349898116825236</v>
+      </c>
+      <c r="JI3">
+        <v>0.3455269145368893</v>
+      </c>
+      <c r="JJ3">
+        <v>2.254924013109045</v>
+      </c>
+      <c r="JK3">
+        <v>0.3597280473850462</v>
+      </c>
+      <c r="JL3">
+        <v>0.8355104783507157</v>
+      </c>
+      <c r="JM3">
+        <v>0.3394429633696084</v>
+      </c>
+      <c r="JN3">
+        <v>0.3375008725309986</v>
+      </c>
+      <c r="JO3">
+        <v>0.3359403211187663</v>
+      </c>
+      <c r="JP3">
+        <v>3.079983100945958</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3487756180672785</v>
+      </c>
+      <c r="JR3">
+        <v>16.25795857687782</v>
+      </c>
+      <c r="JS3">
+        <v>11.28712899004992</v>
+      </c>
+      <c r="JT3">
+        <v>0.3479358910108935</v>
+      </c>
+      <c r="JU3">
+        <v>0.3603946548304826</v>
+      </c>
+      <c r="JV3">
+        <v>0.3566575316981658</v>
+      </c>
+      <c r="JW3">
+        <v>2.007456343344257</v>
+      </c>
+      <c r="JX3">
+        <v>0.3415896220005049</v>
+      </c>
+      <c r="JY3">
+        <v>0.3422811852191575</v>
+      </c>
+      <c r="JZ3">
+        <v>0.3368177233518135</v>
+      </c>
+      <c r="KA3">
+        <v>0.364708448450369</v>
+      </c>
+      <c r="KB3">
+        <v>0.3359062501420968</v>
+      </c>
+      <c r="KC3">
+        <v>0.6211785006213925</v>
+      </c>
+      <c r="KD3">
+        <v>1.76141339699042</v>
+      </c>
+      <c r="KE3">
+        <v>0.3595496478788171</v>
+      </c>
+      <c r="KF3">
+        <v>0.3485118007211154</v>
+      </c>
+      <c r="KG3">
+        <v>1.251847689105812</v>
+      </c>
+      <c r="KH3">
+        <v>17.27223339910132</v>
+      </c>
+      <c r="KI3">
+        <v>3.11342019222547</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3412991283140892</v>
+      </c>
+      <c r="KK3">
+        <v>0.3483419345296327</v>
+      </c>
+      <c r="KL3">
+        <v>319.5103926389776</v>
+      </c>
+      <c r="KM3">
+        <v>23.94270952492514</v>
+      </c>
+      <c r="KN3">
+        <v>4.441493762437704</v>
+      </c>
+      <c r="KO3">
+        <v>25.4267463557334</v>
+      </c>
+      <c r="KP3">
+        <v>105.8997495029509</v>
+      </c>
+      <c r="KQ3">
+        <v>103.7935753769851</v>
+      </c>
+      <c r="KR3">
+        <v>14.57843617084147</v>
+      </c>
+      <c r="KS3">
+        <v>6.865356646588362</v>
+      </c>
+      <c r="KT3">
+        <v>3.544161645950658</v>
+      </c>
+      <c r="KU3">
+        <v>4.611601868057357</v>
+      </c>
+      <c r="KV3">
+        <v>11.37150001147398</v>
+      </c>
+      <c r="KW3">
+        <v>13.96468796839371</v>
+      </c>
+      <c r="KX3">
+        <v>3.634234974875503</v>
+      </c>
+      <c r="KY3">
+        <v>0.3363686104641818</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3360422367833793</v>
+      </c>
+      <c r="LA3">
+        <v>0.6427178338264912</v>
+      </c>
+      <c r="LB3">
+        <v>2.089214609404271</v>
+      </c>
+      <c r="LC3">
+        <v>2.130255298167181</v>
+      </c>
+      <c r="LD3">
+        <v>2.031975917283686</v>
+      </c>
+      <c r="LE3">
+        <v>0.365173581356132</v>
+      </c>
+      <c r="LF3">
+        <v>0.3379198957197982</v>
+      </c>
+      <c r="LG3">
+        <v>0.3599821718332317</v>
+      </c>
+      <c r="LH3">
+        <v>0.5661081094027069</v>
+      </c>
+      <c r="LI3">
+        <v>0.3375221804175002</v>
+      </c>
+      <c r="LJ3">
+        <v>0.3624535570555408</v>
+      </c>
+      <c r="LK3">
+        <v>0.339284264217255</v>
+      </c>
+      <c r="LL3">
+        <v>0.369171789946739</v>
+      </c>
+      <c r="LM3">
+        <v>0.3538518069055255</v>
+      </c>
+      <c r="LN3">
+        <v>0.3517414803095655</v>
+      </c>
+      <c r="LO3">
+        <v>0.3745743026206903</v>
+      </c>
+      <c r="LP3">
+        <v>0.3380348630565695</v>
+      </c>
+      <c r="LQ3">
+        <v>0.3383775620395723</v>
+      </c>
+      <c r="LR3">
+        <v>4.920302989505802</v>
+      </c>
+      <c r="LS3">
+        <v>0.397616906387153</v>
+      </c>
+      <c r="LT3">
+        <v>0.3491239169047313</v>
+      </c>
+      <c r="LU3">
+        <v>0.4597164695322568</v>
+      </c>
+      <c r="LV3">
+        <v>2.960772069881971</v>
+      </c>
+      <c r="LW3">
+        <v>0.3743700969367595</v>
+      </c>
+      <c r="LX3">
+        <v>0.3385271809434243</v>
+      </c>
+      <c r="LY3">
+        <v>14.91979059366352</v>
+      </c>
+      <c r="LZ3">
+        <v>0.3403605591150967</v>
+      </c>
+      <c r="MA3">
+        <v>0.338985512108322</v>
+      </c>
+      <c r="MB3">
+        <v>0.343997546856149</v>
+      </c>
+      <c r="MC3">
+        <v>6.209987853578856</v>
+      </c>
+      <c r="MD3">
+        <v>0.4223658761433324</v>
+      </c>
+      <c r="ME3">
+        <v>0.3397948864838665</v>
+      </c>
+      <c r="MF3">
+        <v>2.023490832698997</v>
+      </c>
+      <c r="MG3">
+        <v>4.82941146461302</v>
+      </c>
+      <c r="MH3">
+        <v>2.333621515773129</v>
+      </c>
+      <c r="MI3">
+        <v>2.308471193258705</v>
+      </c>
+      <c r="MJ3">
+        <v>0.3392990595976941</v>
+      </c>
+      <c r="MK3">
+        <v>0.3492225527585442</v>
+      </c>
+      <c r="ML3">
+        <v>1.325510565865047</v>
+      </c>
+      <c r="MM3">
+        <v>3.323475744242384</v>
+      </c>
+      <c r="MN3">
+        <v>0.4035086777108767</v>
+      </c>
+      <c r="MO3">
+        <v>16.01908915924058</v>
+      </c>
+      <c r="MP3">
+        <v>0.3471847578734095</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3537779871398322</v>
+      </c>
+      <c r="MR3">
+        <v>0.3360260987617255</v>
+      </c>
+      <c r="MS3">
+        <v>0.3505273191462516</v>
+      </c>
+      <c r="MT3">
+        <v>0.6967621082594033</v>
+      </c>
+      <c r="MU3">
+        <v>0.4383272306540043</v>
+      </c>
+      <c r="MV3">
+        <v>8.95984059547739</v>
+      </c>
+      <c r="MW3">
+        <v>2.345047984553828</v>
+      </c>
+      <c r="MX3">
+        <v>0.3451561680526762</v>
+      </c>
+      <c r="MY3">
+        <v>0.3440273149792344</v>
+      </c>
+      <c r="MZ3">
+        <v>0.3382170469127744</v>
+      </c>
+      <c r="NA3">
+        <v>0.365652516423335</v>
+      </c>
+      <c r="NB3">
+        <v>0.3433825624650718</v>
+      </c>
+      <c r="NC3">
+        <v>0.3388911284730225</v>
+      </c>
+      <c r="ND3">
+        <v>6.408379991623437</v>
+      </c>
+      <c r="NE3">
+        <v>6.648600790088957</v>
+      </c>
+      <c r="NF3">
+        <v>0.3366421942074659</v>
+      </c>
+      <c r="NG3">
+        <v>3.24020535913794</v>
+      </c>
+      <c r="NH3">
+        <v>0.3353605700927721</v>
+      </c>
+      <c r="NI3">
+        <v>1.743836071739149</v>
+      </c>
+      <c r="NJ3">
+        <v>0.3383430148659288</v>
+      </c>
+      <c r="NK3">
+        <v>0.3375203508181349</v>
+      </c>
+      <c r="NL3">
+        <v>0.3485561490594093</v>
+      </c>
+      <c r="NM3">
+        <v>11.09202952505684</v>
+      </c>
+      <c r="NN3">
+        <v>0.407781010430446</v>
+      </c>
+      <c r="NO3">
+        <v>13.03182179629522</v>
+      </c>
+      <c r="NP3">
+        <v>0.3443939520786942</v>
+      </c>
+      <c r="NQ3">
+        <v>3.08397070730451</v>
+      </c>
+      <c r="NR3">
+        <v>2.355864487123836</v>
+      </c>
+      <c r="NS3">
+        <v>1.44710870399758</v>
+      </c>
+      <c r="NT3">
+        <v>9.539454518957159</v>
+      </c>
+      <c r="NU3">
+        <v>6.111188002386851</v>
+      </c>
+      <c r="NV3">
+        <v>0.5421582890189734</v>
+      </c>
+      <c r="NW3">
+        <v>6.033105160401357</v>
+      </c>
+      <c r="NX3">
+        <v>7.861372536345161</v>
+      </c>
+      <c r="NY3">
+        <v>3.056942805855944</v>
+      </c>
+      <c r="NZ3">
+        <v>0.3450386795866573</v>
+      </c>
+      <c r="OA3">
+        <v>0.3477784872277303</v>
+      </c>
+      <c r="OB3">
+        <v>2.756219314854585</v>
+      </c>
+      <c r="OC3">
+        <v>0.3582741025502481</v>
+      </c>
+      <c r="OD3">
+        <v>0.37700712609065</v>
+      </c>
+      <c r="OE3">
+        <v>0.4030217775887006</v>
+      </c>
+      <c r="OF3">
+        <v>2.222817934053155</v>
+      </c>
+      <c r="OG3">
+        <v>0.3362043023739665</v>
+      </c>
+      <c r="OH3">
+        <v>0.4046587850001182</v>
+      </c>
+      <c r="OI3">
+        <v>0.3682354403432297</v>
+      </c>
+      <c r="OJ3">
+        <v>0.3715336971667591</v>
+      </c>
+      <c r="OK3">
+        <v>1.513044542758316</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.3502562966662873</v>
+        <v>0.3474300309043949</v>
       </c>
       <c r="C4">
-        <v>557.3129538738923</v>
+        <v>0.3460771145038433</v>
       </c>
       <c r="D4">
-        <v>202.7811806887733</v>
+        <v>0.3471612849644996</v>
       </c>
       <c r="E4">
-        <v>1.781528737432185</v>
+        <v>0.3462367599748526</v>
       </c>
       <c r="F4">
-        <v>0.3599690503429921</v>
+        <v>0.8894464933027573</v>
       </c>
       <c r="G4">
-        <v>0.3714826549867819</v>
+        <v>0.3381159990711964</v>
       </c>
       <c r="H4">
-        <v>458.1837528022531</v>
+        <v>0.3673146255345853</v>
       </c>
       <c r="I4">
-        <v>281.3168848683073</v>
+        <v>0.3886029802905224</v>
       </c>
       <c r="J4">
-        <v>0.3645366686613876</v>
+        <v>0.3355598406738178</v>
       </c>
       <c r="K4">
-        <v>10.14263284240536</v>
+        <v>0.3377408795482892</v>
       </c>
       <c r="L4">
-        <v>13.73175744433625</v>
+        <v>0.3373878743834514</v>
       </c>
       <c r="M4">
-        <v>0.3557069844959211</v>
+        <v>0.3363494483637297</v>
       </c>
       <c r="N4">
-        <v>0.3565458463424753</v>
+        <v>0.3348100708214879</v>
       </c>
       <c r="O4">
-        <v>0.3419036584819592</v>
+        <v>4.211486690817767</v>
       </c>
       <c r="P4">
-        <v>0.3477564204080378</v>
+        <v>0.3367614916773062</v>
       </c>
       <c r="Q4">
-        <v>0.4336671575230716</v>
+        <v>0.3368061237238755</v>
       </c>
       <c r="R4">
-        <v>44.45692761446266</v>
+        <v>0.3555500772248503</v>
       </c>
       <c r="S4">
-        <v>0.338470145043575</v>
+        <v>0.3502386170397492</v>
       </c>
       <c r="T4">
-        <v>0.3679958941212956</v>
+        <v>0.3437709815342838</v>
       </c>
       <c r="U4">
-        <v>274.5344127063724</v>
+        <v>0.3401604693480401</v>
       </c>
       <c r="V4">
-        <v>0.3514066619305383</v>
+        <v>0.3614168372321345</v>
       </c>
       <c r="W4">
-        <v>220.9832888128602</v>
+        <v>0.6385741925445785</v>
       </c>
       <c r="X4">
-        <v>1396.674850350583</v>
+        <v>0.3604693242052714</v>
       </c>
       <c r="Y4">
-        <v>0.3560713804736543</v>
+        <v>0.3358124349484874</v>
       </c>
       <c r="Z4">
-        <v>0.3828671527328106</v>
+        <v>0.3483551531928138</v>
       </c>
       <c r="AA4">
-        <v>215.8495858247952</v>
+        <v>0.4332916311855168</v>
       </c>
       <c r="AB4">
-        <v>2.04002784067355</v>
+        <v>2.995516073582578</v>
       </c>
       <c r="AC4">
-        <v>0.346228662968981</v>
+        <v>3.571640204797867</v>
       </c>
       <c r="AD4">
-        <v>75.40083269982958</v>
+        <v>0.3923195575805594</v>
       </c>
       <c r="AE4">
-        <v>0.3696068204242635</v>
+        <v>0.3476377630135019</v>
       </c>
       <c r="AF4">
-        <v>51.28230543710617</v>
+        <v>74.76160931226048</v>
       </c>
       <c r="AG4">
-        <v>0.3591869426463621</v>
+        <v>0.6998931373335218</v>
       </c>
       <c r="AH4">
-        <v>128.3099173199706</v>
+        <v>8.6987140639452</v>
       </c>
       <c r="AI4">
-        <v>0.3629946094977318</v>
+        <v>0.3456085034413172</v>
       </c>
       <c r="AJ4">
-        <v>0.3420257686442306</v>
+        <v>0.4573815858816175</v>
       </c>
       <c r="AK4">
-        <v>14.00007578660712</v>
+        <v>1.544807949791329</v>
       </c>
       <c r="AL4">
-        <v>541.1505952979651</v>
+        <v>6.743641381248385</v>
       </c>
       <c r="AM4">
-        <v>1950.673043714664</v>
+        <v>0.409597328090879</v>
       </c>
       <c r="AN4">
-        <v>0.3478868139411994</v>
+        <v>0.3373775033629931</v>
       </c>
       <c r="AO4">
-        <v>155.73739465907</v>
+        <v>7.311158291042885</v>
       </c>
       <c r="AP4">
-        <v>10.42433607782947</v>
+        <v>0.342638975752891</v>
       </c>
       <c r="AQ4">
-        <v>6.673617054591223</v>
+        <v>0.3423896319951218</v>
       </c>
       <c r="AR4">
-        <v>52.05277240888669</v>
+        <v>0.3822234793405181</v>
       </c>
       <c r="AS4">
-        <v>183.3319772116384</v>
+        <v>0.4494794433465207</v>
       </c>
       <c r="AT4">
-        <v>0.3587405023336225</v>
+        <v>3.659493974118054</v>
       </c>
       <c r="AU4">
-        <v>417.2706481710249</v>
+        <v>0.3717700061161804</v>
       </c>
       <c r="AV4">
-        <v>0.3426279787789727</v>
+        <v>2.464292289110452</v>
       </c>
       <c r="AW4">
-        <v>7.662917846948779</v>
+        <v>0.3409375847064143</v>
       </c>
       <c r="AX4">
-        <v>0.3401288239679374</v>
+        <v>0.3387793682756888</v>
       </c>
       <c r="AY4">
-        <v>2.587749380685292</v>
+        <v>0.3350622421000359</v>
       </c>
       <c r="AZ4">
-        <v>0.3374754266296827</v>
+        <v>0.3385273034077505</v>
       </c>
       <c r="BA4">
-        <v>106.0020025453105</v>
+        <v>3.717251853189496</v>
       </c>
       <c r="BB4">
-        <v>144.9429104131594</v>
+        <v>4.155974965474793</v>
       </c>
       <c r="BC4">
-        <v>0.3669421437153778</v>
+        <v>0.3457489746051028</v>
       </c>
       <c r="BD4">
-        <v>632.615541632689</v>
+        <v>0.3972139254212093</v>
       </c>
       <c r="BE4">
-        <v>14.84813298476386</v>
+        <v>0.3547088912820772</v>
       </c>
       <c r="BF4">
-        <v>0.3519370554711577</v>
+        <v>0.3399658565857057</v>
       </c>
       <c r="BG4">
-        <v>0.3406058152217359</v>
+        <v>0.341468155346824</v>
       </c>
       <c r="BH4">
-        <v>0.369386667863644</v>
+        <v>0.3712177801246696</v>
       </c>
       <c r="BI4">
-        <v>1297.314068972007</v>
+        <v>0.3766346775112427</v>
       </c>
       <c r="BJ4">
-        <v>0.3333578977335991</v>
+        <v>0.3479883064955946</v>
       </c>
       <c r="BK4">
-        <v>0.3415439952920574</v>
+        <v>0.3453736849041023</v>
       </c>
       <c r="BL4">
-        <v>0.3827795592370644</v>
+        <v>9.070232358536924</v>
       </c>
       <c r="BM4">
-        <v>2035.070556598312</v>
+        <v>49.99572924476524</v>
       </c>
       <c r="BN4">
-        <v>0.4202035107724778</v>
+        <v>0.3981393206631573</v>
       </c>
       <c r="BO4">
-        <v>332.3085256149564</v>
+        <v>0.3372889184088535</v>
       </c>
       <c r="BP4">
-        <v>661.4326840384341</v>
+        <v>0.3422243820817253</v>
       </c>
       <c r="BQ4">
-        <v>0.4809732197231372</v>
+        <v>21.55737109463016</v>
       </c>
       <c r="BR4">
-        <v>150.4639431295588</v>
+        <v>0.3657846943315569</v>
       </c>
       <c r="BS4">
-        <v>6.200979248644534</v>
+        <v>0.3563370618941707</v>
       </c>
       <c r="BT4">
-        <v>0.3657263172423915</v>
+        <v>0.391892908808735</v>
       </c>
       <c r="BU4">
-        <v>0.3572379398174098</v>
+        <v>0.3768008644105474</v>
       </c>
       <c r="BV4">
-        <v>6.280680473285653</v>
+        <v>0.3398886118377542</v>
       </c>
       <c r="BW4">
-        <v>0.3357259016549963</v>
+        <v>0.3374304311926956</v>
       </c>
       <c r="BX4">
-        <v>415.6303692837548</v>
+        <v>0.3361523185777344</v>
       </c>
       <c r="BY4">
-        <v>0.3565438153268065</v>
+        <v>0.3700625025703104</v>
       </c>
       <c r="BZ4">
-        <v>0.3353322151741088</v>
+        <v>0.3396948169465295</v>
       </c>
       <c r="CA4">
-        <v>0.340128059888436</v>
+        <v>0.3875176785371442</v>
       </c>
       <c r="CB4">
-        <v>0.3367787372589889</v>
+        <v>5.173483107807515</v>
       </c>
       <c r="CC4">
-        <v>0.5431442517673967</v>
+        <v>0.392013001258029</v>
       </c>
       <c r="CD4">
-        <v>0.3380111819585382</v>
+        <v>0.3378158438451083</v>
       </c>
       <c r="CE4">
-        <v>330.4621139181896</v>
+        <v>0.3781535472144602</v>
       </c>
       <c r="CF4">
-        <v>0.3688392159029213</v>
+        <v>0.4179319383647319</v>
       </c>
       <c r="CG4">
-        <v>21.74057268961225</v>
+        <v>0.822536776485489</v>
       </c>
       <c r="CH4">
-        <v>0.3414886397844371</v>
+        <v>0.3428893522918001</v>
       </c>
       <c r="CI4">
-        <v>0.3947568663823618</v>
+        <v>0.3351469758883225</v>
       </c>
       <c r="CJ4">
-        <v>0.3355295334019419</v>
+        <v>0.3574112091512562</v>
       </c>
       <c r="CK4">
-        <v>8.414170831951781</v>
+        <v>0.3614199621079476</v>
       </c>
       <c r="CL4">
-        <v>0.4058784630652577</v>
+        <v>6.677073152143879</v>
       </c>
       <c r="CM4">
-        <v>40.03847753406851</v>
+        <v>0.3766259143591616</v>
       </c>
       <c r="CN4">
-        <v>0.3404855607176149</v>
+        <v>0.3363059311000515</v>
       </c>
       <c r="CO4">
-        <v>0.3540736644078252</v>
+        <v>0.3379299093686358</v>
       </c>
       <c r="CP4">
-        <v>0.3430095004227408</v>
+        <v>0.3922647564357892</v>
       </c>
       <c r="CQ4">
-        <v>0.3376782835150259</v>
+        <v>0.3464700378567467</v>
       </c>
       <c r="CR4">
-        <v>0.3771528824065833</v>
+        <v>14.15022129779337</v>
       </c>
       <c r="CS4">
-        <v>0.3414695998405651</v>
+        <v>1.539434177828776</v>
       </c>
       <c r="CT4">
-        <v>324.8868708937856</v>
+        <v>0.928005838142725</v>
       </c>
       <c r="CU4">
-        <v>16.05208078157155</v>
+        <v>0.3430965017683738</v>
       </c>
       <c r="CV4">
-        <v>22.28625816874898</v>
+        <v>0.335651640299424</v>
       </c>
       <c r="CW4">
-        <v>64.0870654060091</v>
+        <v>0.3401657321325105</v>
       </c>
       <c r="CX4">
-        <v>2.2852523340211</v>
+        <v>1.080452205586462</v>
       </c>
       <c r="CY4">
-        <v>345.7502025049856</v>
+        <v>0.3502551972836882</v>
       </c>
       <c r="CZ4">
-        <v>180.5780896787034</v>
+        <v>0.4033888696099494</v>
       </c>
       <c r="DA4">
-        <v>1280.419581282922</v>
+        <v>1.992767924364223</v>
       </c>
       <c r="DB4">
-        <v>0.3389121658296465</v>
+        <v>0.4287708951825445</v>
       </c>
       <c r="DC4">
-        <v>580.7887290307531</v>
+        <v>0.3376085992561371</v>
       </c>
       <c r="DD4">
-        <v>101.8999600032746</v>
+        <v>0.335118091029476</v>
       </c>
       <c r="DE4">
-        <v>286.6804134408861</v>
+        <v>0.3401226685817489</v>
       </c>
       <c r="DF4">
-        <v>43.49213170329232</v>
+        <v>0.3678483133708155</v>
       </c>
       <c r="DG4">
-        <v>782.6407908209512</v>
+        <v>0.3819336909777506</v>
       </c>
       <c r="DH4">
-        <v>0.3733716962437351</v>
+        <v>0.4183039506221886</v>
       </c>
       <c r="DI4">
-        <v>0.3746260399748726</v>
+        <v>0.3548950124705963</v>
       </c>
       <c r="DJ4">
-        <v>7869.541889930931</v>
+        <v>0.4549030873164386</v>
       </c>
       <c r="DK4">
-        <v>0.3473621877339119</v>
+        <v>3.02264684764883</v>
       </c>
       <c r="DL4">
-        <v>15.9574662572595</v>
+        <v>0.3367669572064989</v>
       </c>
       <c r="DM4">
-        <v>0.3483520778458234</v>
+        <v>0.3354997179838732</v>
       </c>
       <c r="DN4">
-        <v>31.33385835745436</v>
+        <v>0.3448879640802677</v>
       </c>
       <c r="DO4">
-        <v>193.3017022373362</v>
+        <v>0.3462424649149947</v>
       </c>
       <c r="DP4">
-        <v>456.0041095121643</v>
+        <v>0.3362942972048285</v>
       </c>
       <c r="DQ4">
-        <v>0.3467113671162838</v>
+        <v>0.3358504573660382</v>
       </c>
       <c r="DR4">
-        <v>433.3547322130225</v>
+        <v>0.3429439547456226</v>
       </c>
       <c r="DS4">
-        <v>22.62041756929534</v>
+        <v>0.3391003397234596</v>
       </c>
       <c r="DT4">
-        <v>0.3446628854113599</v>
+        <v>91.51687686659004</v>
       </c>
       <c r="DU4">
-        <v>0.3348935716760138</v>
+        <v>0.451967809267327</v>
       </c>
       <c r="DV4">
-        <v>0.333364052483842</v>
+        <v>0.3414336382566046</v>
       </c>
       <c r="DW4">
-        <v>512.3190356965736</v>
+        <v>0.3416045239853397</v>
       </c>
       <c r="DX4">
-        <v>0.3487120308440263</v>
+        <v>0.400848282873006</v>
       </c>
       <c r="DY4">
-        <v>0.3430411260561844</v>
+        <v>0.3416316767977728</v>
       </c>
       <c r="DZ4">
-        <v>0.3925204036466764</v>
+        <v>0.3355316760237939</v>
       </c>
       <c r="EA4">
-        <v>120.9798585825153</v>
+        <v>0.4278803534611039</v>
       </c>
       <c r="EB4">
-        <v>0.5014005802735921</v>
+        <v>0.3369026839729668</v>
       </c>
       <c r="EC4">
-        <v>21.23787027121471</v>
+        <v>0.3350748100654147</v>
       </c>
       <c r="ED4">
-        <v>0.3408650246261203</v>
+        <v>38.37272228951802</v>
       </c>
       <c r="EE4">
-        <v>105.0544831271533</v>
+        <v>0.342802085909478</v>
       </c>
       <c r="EF4">
-        <v>0.3958207361990141</v>
+        <v>0.3352461330190387</v>
       </c>
       <c r="EG4">
-        <v>364.3265697923815</v>
+        <v>0.3354860456274126</v>
       </c>
       <c r="EH4">
-        <v>0.3412615453479707</v>
+        <v>0.3416275668424992</v>
       </c>
       <c r="EI4">
-        <v>226.6502304999787</v>
+        <v>0.3368470819457247</v>
       </c>
       <c r="EJ4">
-        <v>0.3811428537088915</v>
+        <v>0.3445544393997577</v>
       </c>
       <c r="EK4">
-        <v>13.51016753006067</v>
+        <v>0.5306720200897922</v>
       </c>
       <c r="EL4">
-        <v>0.3430121994381728</v>
+        <v>0.3372629835970984</v>
       </c>
       <c r="EM4">
-        <v>568.0389542681676</v>
+        <v>0.3781593056570509</v>
       </c>
       <c r="EN4">
-        <v>64.32634197322555</v>
+        <v>0.3421924645660732</v>
       </c>
       <c r="EO4">
-        <v>12800.08228578583</v>
+        <v>1.334811185092771</v>
       </c>
       <c r="EP4">
-        <v>12153.27670755925</v>
+        <v>0.3353680642239861</v>
       </c>
       <c r="EQ4">
-        <v>548.2676616661939</v>
+        <v>0.3415400398873555</v>
       </c>
       <c r="ER4">
-        <v>660.0128309071773</v>
+        <v>0.3364985315857516</v>
       </c>
       <c r="ES4">
-        <v>3073.317228518955</v>
+        <v>0.3483418685913136</v>
       </c>
       <c r="ET4">
-        <v>3763.294620000435</v>
+        <v>10.40008961162698</v>
       </c>
       <c r="EU4">
-        <v>108.3687385333474</v>
+        <v>0.4717005362177893</v>
       </c>
       <c r="EV4">
-        <v>4.253373024907074</v>
+        <v>0.6856628980933892</v>
       </c>
       <c r="EW4">
-        <v>356.15013374247</v>
+        <v>0.3381882657089718</v>
       </c>
       <c r="EX4">
-        <v>0.335321804191487</v>
+        <v>0.3415861100745814</v>
       </c>
       <c r="EY4">
-        <v>574.7494707657961</v>
+        <v>0.3391288475266657</v>
       </c>
       <c r="EZ4">
-        <v>0.372120523617084</v>
+        <v>0.3917455745422491</v>
       </c>
       <c r="FA4">
-        <v>37.13973696908126</v>
+        <v>0.3566471405766616</v>
       </c>
       <c r="FB4">
-        <v>0.344197939075894</v>
+        <v>0.33757799253593</v>
       </c>
       <c r="FC4">
-        <v>0.3879903079696535</v>
+        <v>0.3641437149871902</v>
       </c>
       <c r="FD4">
-        <v>0.3380928246062556</v>
+        <v>0.3392434225173047</v>
       </c>
       <c r="FE4">
-        <v>13.3133802907151</v>
+        <v>0.339047239362375</v>
       </c>
       <c r="FF4">
-        <v>0.4201152903677537</v>
+        <v>0.3381028329552164</v>
       </c>
       <c r="FG4">
-        <v>0.6242224330849945</v>
+        <v>0.3592766313070579</v>
       </c>
       <c r="FH4">
-        <v>0.4003527546035315</v>
+        <v>0.3397831687551069</v>
       </c>
       <c r="FI4">
-        <v>419.7087747416995</v>
+        <v>0.3353343717610343</v>
       </c>
       <c r="FJ4">
-        <v>482.4057680367558</v>
+        <v>0.3702212530984651</v>
       </c>
       <c r="FK4">
-        <v>0.3458323139916847</v>
+        <v>0.3989340320988015</v>
       </c>
       <c r="FL4">
-        <v>86.33258048186735</v>
+        <v>0.3611129717852383</v>
       </c>
       <c r="FM4">
-        <v>0.3380478510699033</v>
+        <v>0.3357261562942879</v>
       </c>
       <c r="FN4">
-        <v>0.3342617589998537</v>
+        <v>0.4050253872361832</v>
       </c>
       <c r="FO4">
-        <v>0.3401619634354351</v>
+        <v>39.17774778173089</v>
       </c>
       <c r="FP4">
-        <v>0.3397723989470013</v>
+        <v>33.57052962749936</v>
       </c>
       <c r="FQ4">
-        <v>43.03762676165275</v>
+        <v>1.678192922799735</v>
       </c>
       <c r="FR4">
-        <v>0.3475179580641621</v>
+        <v>0.3440981581653688</v>
       </c>
       <c r="FS4">
-        <v>86.89117756642611</v>
+        <v>0.3361965119359749</v>
       </c>
       <c r="FT4">
-        <v>3.142454309411838</v>
+        <v>0.3349757470866439</v>
       </c>
       <c r="FU4">
-        <v>37.19539164600899</v>
+        <v>0.3637171196798638</v>
       </c>
       <c r="FV4">
-        <v>15.96496535550306</v>
+        <v>30.51588500508738</v>
       </c>
       <c r="FW4">
-        <v>0.3345260176197811</v>
+        <v>0.3451531824660904</v>
       </c>
       <c r="FX4">
-        <v>0.3350086631239582</v>
+        <v>0.3518911891188155</v>
       </c>
       <c r="FY4">
-        <v>0.500017439681901</v>
+        <v>0.3880200374226234</v>
       </c>
       <c r="FZ4">
-        <v>124.4746259893622</v>
+        <v>0.3525109341653452</v>
       </c>
       <c r="GA4">
-        <v>212.8927522901551</v>
+        <v>0.4755752657356584</v>
       </c>
       <c r="GB4">
-        <v>92.07477389714674</v>
+        <v>40.38862825809902</v>
       </c>
       <c r="GC4">
-        <v>0.4278620265456698</v>
+        <v>16.99094809957855</v>
       </c>
       <c r="GD4">
-        <v>0.3395946136099659</v>
+        <v>23.97158175427419</v>
       </c>
       <c r="GE4">
-        <v>78.62881659136268</v>
+        <v>2.157896763831243</v>
       </c>
       <c r="GF4">
-        <v>10.71008217975494</v>
+        <v>0.3373773132696808</v>
       </c>
       <c r="GG4">
-        <v>158.8427581261387</v>
+        <v>0.3544903174160654</v>
       </c>
       <c r="GH4">
-        <v>877.03807405818</v>
+        <v>0.3837404756824537</v>
       </c>
       <c r="GI4">
-        <v>0.3407511393951768</v>
+        <v>0.3619989532627074</v>
       </c>
       <c r="GJ4">
-        <v>0.3445520558167559</v>
+        <v>0.3485278556871553</v>
       </c>
       <c r="GK4">
-        <v>152.1208600763597</v>
+        <v>0.3405338356108428</v>
       </c>
       <c r="GL4">
-        <v>121.2727576826833</v>
+        <v>0.3529775257204558</v>
       </c>
       <c r="GM4">
-        <v>44.65779688745985</v>
+        <v>40.82608548877604</v>
       </c>
       <c r="GN4">
-        <v>0.3671357200560811</v>
+        <v>0.4015156764195725</v>
       </c>
       <c r="GO4">
-        <v>16.18253366869838</v>
+        <v>0.3565468216581797</v>
       </c>
       <c r="GP4">
-        <v>1.728084116809511</v>
+        <v>0.3622368281217785</v>
       </c>
       <c r="GQ4">
-        <v>0.3342256563233659</v>
+        <v>0.3347699738763505</v>
       </c>
       <c r="GR4">
-        <v>1.818698120536989</v>
+        <v>0.3408559692880776</v>
       </c>
       <c r="GS4">
-        <v>0.3779023187804573</v>
+        <v>0.3650149379477322</v>
+      </c>
+      <c r="GT4">
+        <v>0.3442954089607586</v>
+      </c>
+      <c r="GU4">
+        <v>0.3401668978728907</v>
+      </c>
+      <c r="GV4">
+        <v>0.3402598367733092</v>
+      </c>
+      <c r="GW4">
+        <v>0.4504335860974101</v>
+      </c>
+      <c r="GX4">
+        <v>2.379728743048529</v>
+      </c>
+      <c r="GY4">
+        <v>0.3679334038571472</v>
+      </c>
+      <c r="GZ4">
+        <v>0.3805120384444611</v>
+      </c>
+      <c r="HA4">
+        <v>0.3416504402279583</v>
+      </c>
+      <c r="HB4">
+        <v>0.3606222396996716</v>
+      </c>
+      <c r="HC4">
+        <v>0.3454831412000934</v>
+      </c>
+      <c r="HD4">
+        <v>2.22237948329991</v>
+      </c>
+      <c r="HE4">
+        <v>0.335097323611952</v>
+      </c>
+      <c r="HF4">
+        <v>0.3955870870187511</v>
+      </c>
+      <c r="HG4">
+        <v>0.3352247815334001</v>
+      </c>
+      <c r="HH4">
+        <v>0.4223180303052902</v>
+      </c>
+      <c r="HI4">
+        <v>0.9377896476689764</v>
+      </c>
+      <c r="HJ4">
+        <v>0.339494886655724</v>
+      </c>
+      <c r="HK4">
+        <v>1.275248338252094</v>
+      </c>
+      <c r="HL4">
+        <v>0.3723234756249625</v>
+      </c>
+      <c r="HM4">
+        <v>0.3355249195027043</v>
+      </c>
+      <c r="HN4">
+        <v>0.3360254798559064</v>
+      </c>
+      <c r="HO4">
+        <v>0.3399696086666757</v>
+      </c>
+      <c r="HP4">
+        <v>0.3393176727504107</v>
+      </c>
+      <c r="HQ4">
+        <v>0.3551247951227882</v>
+      </c>
+      <c r="HR4">
+        <v>32.18967813527698</v>
+      </c>
+      <c r="HS4">
+        <v>0.3581349317290377</v>
+      </c>
+      <c r="HT4">
+        <v>5.516917019915447</v>
+      </c>
+      <c r="HU4">
+        <v>15.42867270132764</v>
+      </c>
+      <c r="HV4">
+        <v>0.404926174344492</v>
+      </c>
+      <c r="HW4">
+        <v>0.3494858976139766</v>
+      </c>
+      <c r="HX4">
+        <v>0.3686824789083483</v>
+      </c>
+      <c r="HY4">
+        <v>3.336746564460883</v>
+      </c>
+      <c r="HZ4">
+        <v>0.3353014739512239</v>
+      </c>
+      <c r="IA4">
+        <v>43.64940632976676</v>
+      </c>
+      <c r="IB4">
+        <v>0.3389482492016512</v>
+      </c>
+      <c r="IC4">
+        <v>0.3353908533197911</v>
+      </c>
+      <c r="ID4">
+        <v>1.266202106816192</v>
+      </c>
+      <c r="IE4">
+        <v>5.046723021653564</v>
+      </c>
+      <c r="IF4">
+        <v>0.4250432322994102</v>
+      </c>
+      <c r="IG4">
+        <v>23.47497258387585</v>
+      </c>
+      <c r="IH4">
+        <v>24.11257845657056</v>
+      </c>
+      <c r="II4">
+        <v>0.3504026876587308</v>
+      </c>
+      <c r="IJ4">
+        <v>2.78669752836192</v>
+      </c>
+      <c r="IK4">
+        <v>0.3499531129511657</v>
+      </c>
+      <c r="IL4">
+        <v>0.3402021384719024</v>
+      </c>
+      <c r="IM4">
+        <v>0.3618611063723192</v>
+      </c>
+      <c r="IN4">
+        <v>0.3637054930530364</v>
+      </c>
+      <c r="IO4">
+        <v>0.3591595849415115</v>
+      </c>
+      <c r="IP4">
+        <v>8.356913724394371</v>
+      </c>
+      <c r="IQ4">
+        <v>0.3395617174428209</v>
+      </c>
+      <c r="IR4">
+        <v>2.572471471786745</v>
+      </c>
+      <c r="IS4">
+        <v>0.3372644446775543</v>
+      </c>
+      <c r="IT4">
+        <v>82.69070496940675</v>
+      </c>
+      <c r="IU4">
+        <v>0.3401520352542529</v>
+      </c>
+      <c r="IV4">
+        <v>0.3714359003091868</v>
+      </c>
+      <c r="IW4">
+        <v>0.3782374351098993</v>
+      </c>
+      <c r="IX4">
+        <v>0.3705614768107031</v>
+      </c>
+      <c r="IY4">
+        <v>0.6701993384401079</v>
+      </c>
+      <c r="IZ4">
+        <v>0.3459829947562693</v>
+      </c>
+      <c r="JA4">
+        <v>0.4517286536162163</v>
+      </c>
+      <c r="JB4">
+        <v>0.3388895005902545</v>
+      </c>
+      <c r="JC4">
+        <v>0.3438072086039925</v>
+      </c>
+      <c r="JD4">
+        <v>0.3388722733461851</v>
+      </c>
+      <c r="JE4">
+        <v>0.3354844693036334</v>
+      </c>
+      <c r="JF4">
+        <v>0.4020975479163682</v>
+      </c>
+      <c r="JG4">
+        <v>0.3555420227352405</v>
+      </c>
+      <c r="JH4">
+        <v>0.3349112165079983</v>
+      </c>
+      <c r="JI4">
+        <v>0.3964117335754747</v>
+      </c>
+      <c r="JJ4">
+        <v>0.3383979310971486</v>
+      </c>
+      <c r="JK4">
+        <v>9.476090382261843</v>
+      </c>
+      <c r="JL4">
+        <v>0.3994222340342445</v>
+      </c>
+      <c r="JM4">
+        <v>0.3364209123432989</v>
+      </c>
+      <c r="JN4">
+        <v>0.3392899498014741</v>
+      </c>
+      <c r="JO4">
+        <v>0.3356764610991533</v>
+      </c>
+      <c r="JP4">
+        <v>1.20892461701121</v>
+      </c>
+      <c r="JQ4">
+        <v>2.368113275050382</v>
+      </c>
+      <c r="JR4">
+        <v>0.3391274779637615</v>
+      </c>
+      <c r="JS4">
+        <v>6.938252840032294</v>
+      </c>
+      <c r="JT4">
+        <v>28.98307610752541</v>
+      </c>
+      <c r="JU4">
+        <v>0.4085123123948759</v>
+      </c>
+      <c r="JV4">
+        <v>0.440879586649905</v>
+      </c>
+      <c r="JW4">
+        <v>0.3933482167879236</v>
+      </c>
+      <c r="JX4">
+        <v>5.632244271262545</v>
+      </c>
+      <c r="JY4">
+        <v>0.3567242844539059</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3462158163278821</v>
+      </c>
+      <c r="KA4">
+        <v>1.002432306820692</v>
+      </c>
+      <c r="KB4">
+        <v>0.3377491287757077</v>
+      </c>
+      <c r="KC4">
+        <v>0.5224056532288234</v>
+      </c>
+      <c r="KD4">
+        <v>0.3604182985182394</v>
+      </c>
+      <c r="KE4">
+        <v>0.419219965433928</v>
+      </c>
+      <c r="KF4">
+        <v>4.798699718417091</v>
+      </c>
+      <c r="KG4">
+        <v>0.3922231714407696</v>
+      </c>
+      <c r="KH4">
+        <v>0.3663629882742837</v>
+      </c>
+      <c r="KI4">
+        <v>0.3416151323662114</v>
+      </c>
+      <c r="KJ4">
+        <v>21.83481030691154</v>
+      </c>
+      <c r="KK4">
+        <v>1.2854411495382</v>
+      </c>
+      <c r="KL4">
+        <v>0.3474977597540252</v>
+      </c>
+      <c r="KM4">
+        <v>0.3849188649541783</v>
+      </c>
+      <c r="KN4">
+        <v>0.3553180318288693</v>
+      </c>
+      <c r="KO4">
+        <v>0.4119531264198026</v>
+      </c>
+      <c r="KP4">
+        <v>0.3785167800298315</v>
+      </c>
+      <c r="KQ4">
+        <v>0.3654510936151894</v>
+      </c>
+      <c r="KR4">
+        <v>0.4123178428306828</v>
+      </c>
+      <c r="KS4">
+        <v>0.3523138839471316</v>
+      </c>
+      <c r="KT4">
+        <v>2.013960810358716</v>
+      </c>
+      <c r="KU4">
+        <v>0.3603125741932977</v>
+      </c>
+      <c r="KV4">
+        <v>0.370293628215171</v>
+      </c>
+      <c r="KW4">
+        <v>6.057044561698574</v>
+      </c>
+      <c r="KX4">
+        <v>26.49827226351642</v>
+      </c>
+      <c r="KY4">
+        <v>0.3437223622833002</v>
+      </c>
+      <c r="KZ4">
+        <v>0.3379106713215154</v>
+      </c>
+      <c r="LA4">
+        <v>70.40653563189878</v>
+      </c>
+      <c r="LB4">
+        <v>0.3371377629365865</v>
+      </c>
+      <c r="LC4">
+        <v>0.3359164427524616</v>
+      </c>
+      <c r="LD4">
+        <v>0.3659439533887571</v>
+      </c>
+      <c r="LE4">
+        <v>18.03767877237296</v>
+      </c>
+      <c r="LF4">
+        <v>0.3366901142115684</v>
+      </c>
+      <c r="LG4">
+        <v>0.7439687807038673</v>
+      </c>
+      <c r="LH4">
+        <v>0.3489839119560487</v>
+      </c>
+      <c r="LI4">
+        <v>0.3360746040013382</v>
+      </c>
+      <c r="LJ4">
+        <v>3.948477023030879</v>
+      </c>
+      <c r="LK4">
+        <v>0.3529154949630909</v>
+      </c>
+      <c r="LL4">
+        <v>1.749374434420069</v>
+      </c>
+      <c r="LM4">
+        <v>0.3477314725129937</v>
+      </c>
+      <c r="LN4">
+        <v>0.3505345198058755</v>
+      </c>
+      <c r="LO4">
+        <v>0.9565946519449744</v>
+      </c>
+      <c r="LP4">
+        <v>0.5936760377928665</v>
+      </c>
+      <c r="LQ4">
+        <v>0.3444129073939731</v>
+      </c>
+      <c r="LR4">
+        <v>5.424131386798517</v>
+      </c>
+      <c r="LS4">
+        <v>0.3503536983441459</v>
+      </c>
+      <c r="LT4">
+        <v>0.4485463161741929</v>
+      </c>
+      <c r="LU4">
+        <v>1.037152969142459</v>
+      </c>
+      <c r="LV4">
+        <v>0.3392046804999106</v>
+      </c>
+      <c r="LW4">
+        <v>4.661494603642734</v>
+      </c>
+      <c r="LX4">
+        <v>0.3358287448230523</v>
+      </c>
+      <c r="LY4">
+        <v>10.9988220922706</v>
+      </c>
+      <c r="LZ4">
+        <v>0.3353492802838611</v>
+      </c>
+      <c r="MA4">
+        <v>0.3474141205457278</v>
+      </c>
+      <c r="MB4">
+        <v>0.3639577752498996</v>
+      </c>
+      <c r="MC4">
+        <v>0.334988913058303</v>
+      </c>
+      <c r="MD4">
+        <v>0.8644129214021747</v>
+      </c>
+      <c r="ME4">
+        <v>0.345233378451084</v>
+      </c>
+      <c r="MF4">
+        <v>0.3450376230802087</v>
+      </c>
+      <c r="MG4">
+        <v>0.3407738571338604</v>
+      </c>
+      <c r="MH4">
+        <v>0.3374270045304006</v>
+      </c>
+      <c r="MI4">
+        <v>0.3558718562072822</v>
+      </c>
+      <c r="MJ4">
+        <v>0.338041635361612</v>
+      </c>
+      <c r="MK4">
+        <v>22.48172248653641</v>
+      </c>
+      <c r="ML4">
+        <v>0.3674469319847739</v>
+      </c>
+      <c r="MM4">
+        <v>0.8062699953319516</v>
+      </c>
+      <c r="MN4">
+        <v>1.241244081048511</v>
+      </c>
+      <c r="MO4">
+        <v>13.73849772211681</v>
+      </c>
+      <c r="MP4">
+        <v>0.3588410329014172</v>
+      </c>
+      <c r="MQ4">
+        <v>0.3435477870360283</v>
+      </c>
+      <c r="MR4">
+        <v>0.3360257438945224</v>
+      </c>
+      <c r="MS4">
+        <v>0.3476507651985088</v>
+      </c>
+      <c r="MT4">
+        <v>0.3540598469773657</v>
+      </c>
+      <c r="MU4">
+        <v>0.3491451399119845</v>
+      </c>
+      <c r="MV4">
+        <v>0.3500845262868033</v>
+      </c>
+      <c r="MW4">
+        <v>4.357859475773149</v>
+      </c>
+      <c r="MX4">
+        <v>0.3513744456703616</v>
+      </c>
+      <c r="MY4">
+        <v>0.3759311593753829</v>
+      </c>
+      <c r="MZ4">
+        <v>0.3412584765962957</v>
+      </c>
+      <c r="NA4">
+        <v>0.4197827611347391</v>
+      </c>
+      <c r="NB4">
+        <v>0.4920050960938008</v>
+      </c>
+      <c r="NC4">
+        <v>0.3609275702732481</v>
+      </c>
+      <c r="ND4">
+        <v>1.108870158837231</v>
+      </c>
+      <c r="NE4">
+        <v>1.815208866962538</v>
+      </c>
+      <c r="NF4">
+        <v>0.339316714940116</v>
+      </c>
+      <c r="NG4">
+        <v>0.3471264269503867</v>
+      </c>
+      <c r="NH4">
+        <v>0.3357351231251539</v>
+      </c>
+      <c r="NI4">
+        <v>0.3733817977483426</v>
+      </c>
+      <c r="NJ4">
+        <v>0.3435149593566206</v>
+      </c>
+      <c r="NK4">
+        <v>0.4779732058043348</v>
+      </c>
+      <c r="NL4">
+        <v>1.023402108200613</v>
+      </c>
+      <c r="NM4">
+        <v>5.986980948248138</v>
+      </c>
+      <c r="NN4">
+        <v>4.83922760148888</v>
+      </c>
+      <c r="NO4">
+        <v>0.3919469455155548</v>
+      </c>
+      <c r="NP4">
+        <v>0.34985795295958</v>
+      </c>
+      <c r="NQ4">
+        <v>0.3417738723504055</v>
+      </c>
+      <c r="NR4">
+        <v>0.3430239110049812</v>
+      </c>
+      <c r="NS4">
+        <v>0.3444611432407975</v>
+      </c>
+      <c r="NT4">
+        <v>20.60935914137866</v>
+      </c>
+      <c r="NU4">
+        <v>1.332895636179692</v>
+      </c>
+      <c r="NV4">
+        <v>0.4633898842689579</v>
+      </c>
+      <c r="NW4">
+        <v>2.752644566862112</v>
+      </c>
+      <c r="NX4">
+        <v>0.4209714595378854</v>
+      </c>
+      <c r="NY4">
+        <v>0.3532245482031638</v>
+      </c>
+      <c r="NZ4">
+        <v>0.3364719340069462</v>
+      </c>
+      <c r="OA4">
+        <v>0.8212682939032121</v>
+      </c>
+      <c r="OB4">
+        <v>0.3383151409553763</v>
+      </c>
+      <c r="OC4">
+        <v>2.017525579289124</v>
+      </c>
+      <c r="OD4">
+        <v>4.403129486632172</v>
+      </c>
+      <c r="OE4">
+        <v>0.3390893601165676</v>
+      </c>
+      <c r="OF4">
+        <v>0.3382697249315317</v>
+      </c>
+      <c r="OG4">
+        <v>0.3415571548228131</v>
+      </c>
+      <c r="OH4">
+        <v>0.3553821613162673</v>
+      </c>
+      <c r="OI4">
+        <v>0.346864466872746</v>
+      </c>
+      <c r="OJ4">
+        <v>1.404096052771764</v>
+      </c>
+      <c r="OK4">
+        <v>0.4458095257912467</v>
       </c>
     </row>
   </sheetData>
